--- a/addons/GearSwap/beta_examples_and_information/Variable Remapping.xlsx
+++ b/addons/GearSwap/beta_examples_and_information/Variable Remapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="72" windowWidth="22980" windowHeight="9528"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="22980" windowHeight="9525"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="247">
   <si>
     <t>Old Variable Name</t>
   </si>
@@ -700,9 +700,6 @@
     <t>buff_change(name,gain_or_loss)</t>
   </si>
   <si>
-    <t>status_change(old,{type=new})</t>
-  </si>
-  <si>
     <t>pet_aftercast(spell,{type=Magic_or_Ability)</t>
   </si>
   <si>
@@ -764,6 +761,15 @@
   </si>
   <si>
     <t>Self', 'PLAYER', 'NPC', or 'MONSTER'. Should be re-keyed to match validtarget.</t>
+  </si>
+  <si>
+    <t>//gs reload</t>
+  </si>
+  <si>
+    <t>Reloads the current lua document</t>
+  </si>
+  <si>
+    <t>status_change(new,{type='Status Change',old=old})</t>
   </si>
 </sst>
 </file>
@@ -842,6 +848,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -851,9 +860,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1155,46 +1161,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G132"/>
+  <dimension ref="B1:G133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C95" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="C98" workbookViewId="0">
+      <selection activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.77734375" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" customWidth="1"/>
-    <col min="5" max="5" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="124.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="124.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="C1" s="9" t="s">
+    <row r="1" spans="2:7" ht="25.9" x14ac:dyDescent="0.5">
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="9" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="6" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C2" s="6" t="s">
+    <row r="2" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C2" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C4" t="s">
@@ -1207,8 +1213,8 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="5"/>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="8"/>
       <c r="C5" t="s">
         <v>4</v>
       </c>
@@ -1219,8 +1225,8 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="5"/>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="8"/>
       <c r="C6" t="s">
         <v>6</v>
       </c>
@@ -1231,8 +1237,8 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="5"/>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="8"/>
       <c r="C7" t="s">
         <v>8</v>
       </c>
@@ -1243,8 +1249,8 @@
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="5"/>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="8"/>
       <c r="C8" t="s">
         <v>10</v>
       </c>
@@ -1255,8 +1261,8 @@
         <v>165</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="5"/>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="8"/>
       <c r="C9" t="s">
         <v>12</v>
       </c>
@@ -1267,8 +1273,8 @@
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="5"/>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="8"/>
       <c r="C10" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1285,8 @@
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="5"/>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="8"/>
       <c r="C11" t="s">
         <v>16</v>
       </c>
@@ -1291,8 +1297,8 @@
         <v>165</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="5"/>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="8"/>
       <c r="C12" t="s">
         <v>18</v>
       </c>
@@ -1303,8 +1309,8 @@
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="5"/>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="8"/>
       <c r="C13" t="s">
         <v>20</v>
       </c>
@@ -1315,8 +1321,8 @@
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="5"/>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="8"/>
       <c r="C14" t="s">
         <v>77</v>
       </c>
@@ -1327,8 +1333,8 @@
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="5"/>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="8"/>
       <c r="C15" t="s">
         <v>79</v>
       </c>
@@ -1339,20 +1345,20 @@
         <v>168</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="5"/>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="8"/>
       <c r="C16" t="s">
         <v>81</v>
       </c>
       <c r="E16" t="s">
         <v>82</v>
       </c>
-      <c r="G16" s="8" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="5"/>
+      <c r="G16" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="8"/>
       <c r="C17" t="s">
         <v>83</v>
       </c>
@@ -1363,8 +1369,8 @@
         <v>172</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="5"/>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="8"/>
       <c r="C18" t="s">
         <v>85</v>
       </c>
@@ -1375,8 +1381,8 @@
         <v>172</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="5"/>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="8"/>
       <c r="C19" t="s">
         <v>87</v>
       </c>
@@ -1387,8 +1393,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="5" t="s">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C22" t="s">
@@ -1401,8 +1407,8 @@
         <v>170</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="5"/>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>26</v>
       </c>
@@ -1413,8 +1419,8 @@
         <v>170</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="5"/>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="8"/>
       <c r="C24" t="s">
         <v>31</v>
       </c>
@@ -1425,8 +1431,8 @@
         <v>170</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="5"/>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="8"/>
       <c r="C25" t="s">
         <v>33</v>
       </c>
@@ -1437,8 +1443,8 @@
         <v>170</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="5"/>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="8"/>
       <c r="C26" t="s">
         <v>35</v>
       </c>
@@ -1449,8 +1455,8 @@
         <v>170</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="5"/>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="8"/>
       <c r="C27" t="s">
         <v>37</v>
       </c>
@@ -1461,8 +1467,8 @@
         <v>170</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="5"/>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="8"/>
       <c r="C28" t="s">
         <v>38</v>
       </c>
@@ -1473,8 +1479,8 @@
         <v>170</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="5"/>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="8"/>
       <c r="C29" t="s">
         <v>41</v>
       </c>
@@ -1485,8 +1491,8 @@
         <v>170</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="5"/>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="8"/>
       <c r="C30" t="s">
         <v>43</v>
       </c>
@@ -1497,8 +1503,8 @@
         <v>170</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="5"/>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="8"/>
       <c r="C31" t="s">
         <v>45</v>
       </c>
@@ -1509,8 +1515,8 @@
         <v>170</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B32" s="5"/>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="8"/>
       <c r="C32" t="s">
         <v>46</v>
       </c>
@@ -1521,8 +1527,8 @@
         <v>170</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B33" s="5"/>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="8"/>
       <c r="C33" t="s">
         <v>47</v>
       </c>
@@ -1533,8 +1539,8 @@
         <v>170</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B34" s="5"/>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="8"/>
       <c r="C34" t="s">
         <v>48</v>
       </c>
@@ -1545,8 +1551,8 @@
         <v>170</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B35" s="5"/>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="8"/>
       <c r="C35" t="s">
         <v>54</v>
       </c>
@@ -1557,8 +1563,8 @@
         <v>171</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B36" s="5"/>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="8"/>
       <c r="C36" t="s">
         <v>56</v>
       </c>
@@ -1569,8 +1575,8 @@
         <v>170</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B37" s="5"/>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="8"/>
       <c r="C37" t="s">
         <v>72</v>
       </c>
@@ -1581,20 +1587,20 @@
         <v>172</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B38" s="5"/>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="8"/>
       <c r="C38" t="s">
         <v>73</v>
       </c>
       <c r="E38" t="s">
         <v>90</v>
       </c>
-      <c r="G38" s="8" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B39" s="5"/>
+      <c r="G38" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="8"/>
       <c r="C39" t="s">
         <v>74</v>
       </c>
@@ -1605,8 +1611,8 @@
         <v>172</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B40" s="5"/>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="8"/>
       <c r="C40" t="s">
         <v>75</v>
       </c>
@@ -1617,8 +1623,8 @@
         <v>172</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B41" s="5"/>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="8"/>
       <c r="C41" t="s">
         <v>76</v>
       </c>
@@ -1629,8 +1635,8 @@
         <v>174</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B42" s="5"/>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="8"/>
       <c r="E42" t="s">
         <v>94</v>
       </c>
@@ -1638,17 +1644,17 @@
         <v>172</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B43" s="5"/>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="8"/>
       <c r="E43" t="s">
         <v>95</v>
       </c>
-      <c r="G43" s="8" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B44" s="5"/>
+      <c r="G43" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="8"/>
       <c r="C44" t="s">
         <v>2</v>
       </c>
@@ -1659,8 +1665,8 @@
         <v>172</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B45" s="5"/>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="8"/>
       <c r="E45" t="s">
         <v>97</v>
       </c>
@@ -1668,8 +1674,8 @@
         <v>172</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B46" s="5"/>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="8"/>
       <c r="E46" t="s">
         <v>98</v>
       </c>
@@ -1677,8 +1683,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B47" s="5"/>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="8"/>
       <c r="C47" t="s">
         <v>99</v>
       </c>
@@ -1689,8 +1695,8 @@
         <v>175</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B48" s="5"/>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="8"/>
       <c r="C48" t="s">
         <v>100</v>
       </c>
@@ -1701,8 +1707,8 @@
         <v>175</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B49" s="5"/>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="8"/>
       <c r="C49" t="s">
         <v>101</v>
       </c>
@@ -1713,8 +1719,8 @@
         <v>175</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B50" s="5"/>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="8"/>
       <c r="C50" t="s">
         <v>102</v>
       </c>
@@ -1725,14 +1731,14 @@
         <v>175</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B51" s="5"/>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="8"/>
       <c r="C51" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B55" s="5" t="s">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="8" t="s">
         <v>104</v>
       </c>
       <c r="C55" t="s">
@@ -1745,8 +1751,8 @@
         <v>172</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B56" s="5"/>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="8"/>
       <c r="C56" t="s">
         <v>107</v>
       </c>
@@ -1757,8 +1763,8 @@
         <v>176</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B57" s="5"/>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="8"/>
       <c r="C57" t="s">
         <v>109</v>
       </c>
@@ -1769,8 +1775,8 @@
         <v>178</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B58" s="5"/>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="8"/>
       <c r="C58" t="s">
         <v>111</v>
       </c>
@@ -1781,8 +1787,8 @@
         <v>172</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B59" s="5"/>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="8"/>
       <c r="C59" t="s">
         <v>115</v>
       </c>
@@ -1793,8 +1799,8 @@
         <v>172</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B60" s="5"/>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="8"/>
       <c r="C60" t="s">
         <v>113</v>
       </c>
@@ -1805,8 +1811,8 @@
         <v>177</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B63" s="5" t="s">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="8" t="s">
         <v>116</v>
       </c>
       <c r="C63" t="s">
@@ -1819,8 +1825,8 @@
         <v>179</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B64" s="5"/>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="8"/>
       <c r="C64" t="s">
         <v>118</v>
       </c>
@@ -1831,8 +1837,8 @@
         <v>179</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B65" s="5"/>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" s="8"/>
       <c r="C65" t="s">
         <v>119</v>
       </c>
@@ -1843,8 +1849,8 @@
         <v>179</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B68" s="5" t="s">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B68" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C68" t="s">
@@ -1857,8 +1863,8 @@
         <v>180</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B69" s="5"/>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69" s="8"/>
       <c r="C69" t="s">
         <v>58</v>
       </c>
@@ -1869,8 +1875,8 @@
         <v>180</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B70" s="5"/>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70" s="8"/>
       <c r="C70" t="s">
         <v>60</v>
       </c>
@@ -1881,8 +1887,8 @@
         <v>180</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B71" s="5"/>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="8"/>
       <c r="C71" t="s">
         <v>63</v>
       </c>
@@ -1893,8 +1899,8 @@
         <v>180</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B72" s="5"/>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B72" s="8"/>
       <c r="C72" t="s">
         <v>64</v>
       </c>
@@ -1905,8 +1911,8 @@
         <v>180</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B73" s="5"/>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73" s="8"/>
       <c r="C73" t="s">
         <v>66</v>
       </c>
@@ -1917,8 +1923,8 @@
         <v>180</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B74" s="5"/>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B74" s="8"/>
       <c r="C74" t="s">
         <v>68</v>
       </c>
@@ -1929,8 +1935,8 @@
         <v>180</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B75" s="5"/>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75" s="8"/>
       <c r="C75" t="s">
         <v>69</v>
       </c>
@@ -1941,8 +1947,8 @@
         <v>180</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B78" s="5" t="s">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B78" s="8" t="s">
         <v>182</v>
       </c>
       <c r="C78" t="s">
@@ -1955,8 +1961,8 @@
         <v>185</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B79" s="5"/>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B79" s="8"/>
       <c r="C79" t="s">
         <v>2</v>
       </c>
@@ -1967,8 +1973,8 @@
         <v>184</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B80" s="5"/>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B80" s="8"/>
       <c r="C80" t="s">
         <v>2</v>
       </c>
@@ -1979,8 +1985,8 @@
         <v>188</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B81" s="5"/>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B81" s="8"/>
       <c r="C81" t="s">
         <v>2</v>
       </c>
@@ -2002,8 +2008,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="86" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="5" t="s">
+    <row r="86" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="8" t="s">
         <v>127</v>
       </c>
       <c r="C86" t="s">
@@ -2016,8 +2022,8 @@
         <v>190</v>
       </c>
     </row>
-    <row r="87" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="5"/>
+    <row r="87" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="8"/>
       <c r="C87" t="s">
         <v>132</v>
       </c>
@@ -2028,8 +2034,8 @@
         <v>192</v>
       </c>
     </row>
-    <row r="88" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="5"/>
+    <row r="88" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="8"/>
       <c r="C88" t="s">
         <v>139</v>
       </c>
@@ -2040,8 +2046,8 @@
         <v>193</v>
       </c>
     </row>
-    <row r="89" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="5"/>
+    <row r="89" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="8"/>
       <c r="C89" t="s">
         <v>140</v>
       </c>
@@ -2052,8 +2058,8 @@
         <v>195</v>
       </c>
     </row>
-    <row r="90" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="5"/>
+    <row r="90" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="8"/>
       <c r="C90" t="s">
         <v>125</v>
       </c>
@@ -2064,8 +2070,8 @@
         <v>196</v>
       </c>
     </row>
-    <row r="91" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="5"/>
+    <row r="91" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="8"/>
       <c r="C91" t="s">
         <v>150</v>
       </c>
@@ -2076,8 +2082,8 @@
         <v>197</v>
       </c>
     </row>
-    <row r="92" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="5"/>
+    <row r="92" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="8"/>
       <c r="C92" t="s">
         <v>2</v>
       </c>
@@ -2088,8 +2094,8 @@
         <v>198</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B93" s="5"/>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B93" s="8"/>
       <c r="C93" t="s">
         <v>2</v>
       </c>
@@ -2100,8 +2106,8 @@
         <v>199</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B94" s="5"/>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B94" s="8"/>
       <c r="C94" t="s">
         <v>2</v>
       </c>
@@ -2112,8 +2118,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B95" s="5"/>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B95" s="8"/>
       <c r="C95" t="s">
         <v>2</v>
       </c>
@@ -2124,8 +2130,8 @@
         <v>201</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B96" s="5"/>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B96" s="8"/>
       <c r="C96" t="s">
         <v>2</v>
       </c>
@@ -2136,8 +2142,8 @@
         <v>202</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B97" s="5"/>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B97" s="8"/>
       <c r="C97" t="s">
         <v>2</v>
       </c>
@@ -2148,8 +2154,8 @@
         <v>203</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B98" s="5"/>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B98" s="8"/>
       <c r="C98" t="s">
         <v>2</v>
       </c>
@@ -2160,94 +2166,94 @@
         <v>204</v>
       </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B99" s="2"/>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B100" s="7" t="s">
-        <v>229</v>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B100" s="10" t="s">
+        <v>228</v>
       </c>
       <c r="C100" t="s">
         <v>219</v>
       </c>
       <c r="E100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G100" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B101" s="7"/>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B101" s="10"/>
       <c r="C101" t="s">
         <v>220</v>
       </c>
       <c r="E101" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G101" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B102" s="7"/>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B102" s="10"/>
       <c r="C102" t="s">
         <v>221</v>
       </c>
       <c r="E102" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G102" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B103" s="7"/>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B103" s="10"/>
       <c r="E103" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G103" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B104" s="7"/>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B104" s="10"/>
       <c r="E104" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G104" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B105" s="7"/>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B105" s="10"/>
       <c r="E105" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="G105" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B106" s="7"/>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B106" s="10"/>
       <c r="E106" t="s">
         <v>222</v>
       </c>
       <c r="G106" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B107" s="7"/>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B107" s="10"/>
       <c r="E107" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G107" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="110" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="8" t="s">
         <v>136</v>
       </c>
       <c r="C110" t="s">
@@ -2260,8 +2266,8 @@
         <v>205</v>
       </c>
     </row>
-    <row r="111" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="5"/>
+    <row r="111" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="8"/>
       <c r="C111" t="s">
         <v>124</v>
       </c>
@@ -2272,8 +2278,8 @@
         <v>206</v>
       </c>
     </row>
-    <row r="112" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="5"/>
+    <row r="112" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="8"/>
       <c r="C112" t="s">
         <v>126</v>
       </c>
@@ -2284,8 +2290,8 @@
         <v>207</v>
       </c>
     </row>
-    <row r="113" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="5"/>
+    <row r="113" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="8"/>
       <c r="C113" t="s">
         <v>133</v>
       </c>
@@ -2296,8 +2302,8 @@
         <v>208</v>
       </c>
     </row>
-    <row r="114" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="5"/>
+    <row r="114" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="8"/>
       <c r="C114" t="s">
         <v>134</v>
       </c>
@@ -2308,8 +2314,8 @@
         <v>208</v>
       </c>
     </row>
-    <row r="115" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="5"/>
+    <row r="115" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="8"/>
       <c r="C115" t="s">
         <v>137</v>
       </c>
@@ -2320,8 +2326,8 @@
         <v>209</v>
       </c>
     </row>
-    <row r="116" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="5"/>
+    <row r="116" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="8"/>
       <c r="C116" t="s">
         <v>130</v>
       </c>
@@ -2332,11 +2338,11 @@
         <v>210</v>
       </c>
     </row>
-    <row r="117" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B117" s="3"/>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B119" s="7" t="s">
+    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B119" s="10" t="s">
         <v>158</v>
       </c>
       <c r="C119" t="s">
@@ -2349,8 +2355,8 @@
         <v>211</v>
       </c>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B120" s="7"/>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B120" s="10"/>
       <c r="C120" t="s">
         <v>2</v>
       </c>
@@ -2361,8 +2367,8 @@
         <v>212</v>
       </c>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B121" s="7"/>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B121" s="10"/>
       <c r="C121" t="s">
         <v>2</v>
       </c>
@@ -2373,8 +2379,8 @@
         <v>213</v>
       </c>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B122" s="7"/>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B122" s="10"/>
       <c r="C122" t="s">
         <v>2</v>
       </c>
@@ -2385,8 +2391,8 @@
         <v>214</v>
       </c>
     </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B123" s="7"/>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B123" s="10"/>
       <c r="C123" t="s">
         <v>2</v>
       </c>
@@ -2397,8 +2403,8 @@
         <v>215</v>
       </c>
     </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B124" s="7"/>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B124" s="10"/>
       <c r="C124" t="s">
         <v>2</v>
       </c>
@@ -2409,8 +2415,8 @@
         <v>216</v>
       </c>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B125" s="7"/>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B125" s="10"/>
       <c r="C125" t="s">
         <v>2</v>
       </c>
@@ -2421,8 +2427,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B126" s="7"/>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B126" s="10"/>
       <c r="C126" t="s">
         <v>2</v>
       </c>
@@ -2433,42 +2439,50 @@
         <v>218</v>
       </c>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B129" s="5" t="s">
+    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B129" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="E129" t="s">
         <v>235</v>
       </c>
-      <c r="E129" t="s">
+      <c r="G129" t="s">
         <v>236</v>
       </c>
-      <c r="G129" t="s">
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B130" s="8"/>
+      <c r="E130" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B130" s="5"/>
-      <c r="E130" t="s">
+      <c r="G130" t="s">
         <v>238</v>
       </c>
-      <c r="G130" t="s">
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B131" s="8"/>
+      <c r="E131" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B131" s="5"/>
-      <c r="E131" t="s">
+      <c r="G131" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B132" s="8"/>
+      <c r="E132" t="s">
         <v>240</v>
       </c>
-      <c r="G131" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B132" s="5"/>
-      <c r="E132" t="s">
+      <c r="G132" t="s">
         <v>241</v>
       </c>
-      <c r="G132" t="s">
-        <v>242</v>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E133" t="s">
+        <v>244</v>
+      </c>
+      <c r="G133" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -2497,7 +2511,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2509,7 +2523,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/addons/GearSwap/beta_examples_and_information/Variable Remapping.xlsx
+++ b/addons/GearSwap/beta_examples_and_information/Variable Remapping.xlsx
@@ -727,9 +727,6 @@
     <t>Passes the new buff name and whether it was gained or lost.</t>
   </si>
   <si>
-    <t>Passes the old and new status. The syntax here needs to change.</t>
-  </si>
-  <si>
     <t>Passes any self commands, which are triggered by //gs c &lt;command&gt;</t>
   </si>
   <si>
@@ -769,7 +766,10 @@
     <t>Reloads the current lua document</t>
   </si>
   <si>
-    <t>status_change(new,{type='Status Change',old=old})</t>
+    <t>status_change(new,old)</t>
+  </si>
+  <si>
+    <t>Passes the new and old status.</t>
   </si>
 </sst>
 </file>
@@ -1163,8 +1163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C98" workbookViewId="0">
-      <selection activeCell="E105" sqref="E105"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1354,7 +1354,7 @@
         <v>82</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
@@ -1596,7 +1596,7 @@
         <v>90</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
@@ -1650,7 +1650,7 @@
         <v>95</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
@@ -2228,10 +2228,10 @@
     <row r="105" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B105" s="10"/>
       <c r="E105" t="s">
+        <v>245</v>
+      </c>
+      <c r="G105" t="s">
         <v>246</v>
-      </c>
-      <c r="G105" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.25">
@@ -2249,7 +2249,7 @@
         <v>229</v>
       </c>
       <c r="G107" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="110" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2441,48 +2441,48 @@
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B129" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="E129" t="s">
         <v>234</v>
       </c>
-      <c r="E129" t="s">
+      <c r="G129" t="s">
         <v>235</v>
-      </c>
-      <c r="G129" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B130" s="8"/>
       <c r="E130" t="s">
+        <v>236</v>
+      </c>
+      <c r="G130" t="s">
         <v>237</v>
-      </c>
-      <c r="G130" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B131" s="8"/>
       <c r="E131" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G131" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B132" s="8"/>
       <c r="E132" t="s">
+        <v>239</v>
+      </c>
+      <c r="G132" t="s">
         <v>240</v>
-      </c>
-      <c r="G132" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E133" t="s">
+        <v>243</v>
+      </c>
+      <c r="G133" t="s">
         <v>244</v>
-      </c>
-      <c r="G133" t="s">
-        <v>245</v>
       </c>
     </row>
   </sheetData>

--- a/addons/GearSwap/beta_examples_and_information/Variable Remapping.xlsx
+++ b/addons/GearSwap/beta_examples_and_information/Variable Remapping.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="251">
   <si>
     <t>Old Variable Name</t>
   </si>
@@ -770,6 +770,18 @@
   </si>
   <si>
     <t>Passes the new and old status.</t>
+  </si>
+  <si>
+    <t>file_unload()</t>
+  </si>
+  <si>
+    <t>Called once on unload.</t>
+  </si>
+  <si>
+    <t>get_sets()</t>
+  </si>
+  <si>
+    <t>Called once on load. Used to define variables, and specifically "sets"</t>
   </si>
 </sst>
 </file>
@@ -1161,10 +1173,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G133"/>
+  <dimension ref="B1:G135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="E106" sqref="E106"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="G102" sqref="G102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2166,217 +2178,211 @@
         <v>204</v>
       </c>
     </row>
-    <row r="99" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B99" s="2"/>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B100" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="C100" t="s">
-        <v>219</v>
-      </c>
       <c r="E100" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="G100" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="10"/>
       <c r="C101" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E101" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G101" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="10"/>
       <c r="C102" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E102" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G102" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="10"/>
+      <c r="C103" t="s">
+        <v>221</v>
+      </c>
       <c r="E103" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G103" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="10"/>
       <c r="E104" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G104" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="10"/>
       <c r="E105" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="G105" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="10"/>
       <c r="E106" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="G106" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="10"/>
       <c r="E107" t="s">
+        <v>222</v>
+      </c>
+      <c r="G107" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="10"/>
+      <c r="E108" t="s">
         <v>229</v>
       </c>
-      <c r="G107" t="s">
+      <c r="G108" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="110" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="8" t="s">
+    <row r="109" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="10"/>
+      <c r="E109" t="s">
+        <v>247</v>
+      </c>
+      <c r="G109" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C112" t="s">
         <v>135</v>
       </c>
-      <c r="E110" t="s">
-        <v>2</v>
-      </c>
-      <c r="G110" t="s">
+      <c r="E112" t="s">
+        <v>2</v>
+      </c>
+      <c r="G112" t="s">
         <v>205</v>
-      </c>
-    </row>
-    <row r="111" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="8"/>
-      <c r="C111" t="s">
-        <v>124</v>
-      </c>
-      <c r="E111" t="s">
-        <v>2</v>
-      </c>
-      <c r="G111" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="112" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="8"/>
-      <c r="C112" t="s">
-        <v>126</v>
-      </c>
-      <c r="E112" t="s">
-        <v>2</v>
-      </c>
-      <c r="G112" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="113" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="8"/>
       <c r="C113" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E113" t="s">
         <v>2</v>
       </c>
       <c r="G113" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="114" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="8"/>
       <c r="C114" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E114" t="s">
         <v>2</v>
       </c>
       <c r="G114" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="115" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="8"/>
       <c r="C115" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E115" t="s">
         <v>2</v>
       </c>
       <c r="G115" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="116" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="8"/>
       <c r="C116" t="s">
+        <v>134</v>
+      </c>
+      <c r="E116" t="s">
+        <v>2</v>
+      </c>
+      <c r="G116" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="8"/>
+      <c r="C117" t="s">
+        <v>137</v>
+      </c>
+      <c r="E117" t="s">
+        <v>2</v>
+      </c>
+      <c r="G117" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="8"/>
+      <c r="C118" t="s">
         <v>130</v>
       </c>
-      <c r="E116" t="s">
-        <v>2</v>
-      </c>
-      <c r="G116" t="s">
+      <c r="E118" t="s">
+        <v>2</v>
+      </c>
+      <c r="G118" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="117" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="3"/>
-    </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B119" s="10" t="s">
+    <row r="119" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B119" s="3"/>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B121" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="C119" t="s">
-        <v>2</v>
-      </c>
-      <c r="E119" t="s">
+      <c r="C121" t="s">
+        <v>2</v>
+      </c>
+      <c r="E121" t="s">
         <v>154</v>
       </c>
-      <c r="G119" t="s">
+      <c r="G121" t="s">
         <v>211</v>
-      </c>
-    </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B120" s="10"/>
-      <c r="C120" t="s">
-        <v>2</v>
-      </c>
-      <c r="E120" t="s">
-        <v>155</v>
-      </c>
-      <c r="G120" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B121" s="10"/>
-      <c r="C121" t="s">
-        <v>2</v>
-      </c>
-      <c r="E121" t="s">
-        <v>156</v>
-      </c>
-      <c r="G121" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.25">
@@ -2385,10 +2391,10 @@
         <v>2</v>
       </c>
       <c r="E122" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G122" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.25">
@@ -2397,10 +2403,10 @@
         <v>2</v>
       </c>
       <c r="E123" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G123" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.25">
@@ -2409,10 +2415,10 @@
         <v>2</v>
       </c>
       <c r="E124" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G124" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.25">
@@ -2421,10 +2427,10 @@
         <v>2</v>
       </c>
       <c r="E125" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G125" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.25">
@@ -2433,72 +2439,96 @@
         <v>2</v>
       </c>
       <c r="E126" t="s">
+        <v>160</v>
+      </c>
+      <c r="G126" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B127" s="10"/>
+      <c r="C127" t="s">
+        <v>2</v>
+      </c>
+      <c r="E127" t="s">
+        <v>161</v>
+      </c>
+      <c r="G127" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B128" s="10"/>
+      <c r="C128" t="s">
+        <v>2</v>
+      </c>
+      <c r="E128" t="s">
         <v>162</v>
       </c>
-      <c r="G126" t="s">
+      <c r="G128" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B129" s="8" t="s">
+    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B131" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="E129" t="s">
+      <c r="E131" t="s">
         <v>234</v>
       </c>
-      <c r="G129" t="s">
+      <c r="G131" t="s">
         <v>235</v>
-      </c>
-    </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B130" s="8"/>
-      <c r="E130" t="s">
-        <v>236</v>
-      </c>
-      <c r="G130" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B131" s="8"/>
-      <c r="E131" t="s">
-        <v>238</v>
-      </c>
-      <c r="G131" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B132" s="8"/>
       <c r="E132" t="s">
+        <v>236</v>
+      </c>
+      <c r="G132" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B133" s="8"/>
+      <c r="E133" t="s">
+        <v>238</v>
+      </c>
+      <c r="G133" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B134" s="8"/>
+      <c r="E134" t="s">
         <v>239</v>
       </c>
-      <c r="G132" t="s">
+      <c r="G134" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E133" t="s">
+    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E135" t="s">
         <v>243</v>
       </c>
-      <c r="G133" t="s">
+      <c r="G135" t="s">
         <v>244</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B129:B132"/>
+    <mergeCell ref="B131:B134"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="B86:B98"/>
-    <mergeCell ref="B119:B126"/>
+    <mergeCell ref="B121:B128"/>
     <mergeCell ref="B78:B81"/>
-    <mergeCell ref="B110:B116"/>
-    <mergeCell ref="B100:B107"/>
+    <mergeCell ref="B112:B118"/>
     <mergeCell ref="B22:B51"/>
     <mergeCell ref="B4:B19"/>
     <mergeCell ref="B55:B60"/>
     <mergeCell ref="B63:B65"/>
     <mergeCell ref="B68:B75"/>
+    <mergeCell ref="B100:B109"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/addons/GearSwap/beta_examples_and_information/Variable Remapping.xlsx
+++ b/addons/GearSwap/beta_examples_and_information/Variable Remapping.xlsx
@@ -597,9 +597,6 @@
     <t>Cancels the current spell.</t>
   </si>
   <si>
-    <t>Comparable to Include, though this has not been tested.</t>
-  </si>
-  <si>
     <t>cast_delay(delay_in_seconds)</t>
   </si>
   <si>
@@ -782,6 +779,9 @@
   </si>
   <si>
     <t>Called once on load. Used to define variables, and specifically "sets"</t>
+  </si>
+  <si>
+    <t>Comparable to Include.</t>
   </si>
 </sst>
 </file>
@@ -1175,8 +1175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="G102" sqref="G102"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1366,7 +1366,7 @@
         <v>82</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
@@ -1608,7 +1608,7 @@
         <v>90</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
@@ -1662,7 +1662,7 @@
         <v>95</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
@@ -2055,7 +2055,7 @@
         <v>141</v>
       </c>
       <c r="G88" t="s">
-        <v>193</v>
+        <v>250</v>
       </c>
     </row>
     <row r="89" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2067,7 +2067,7 @@
         <v>143</v>
       </c>
       <c r="G89" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="90" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2076,10 +2076,10 @@
         <v>125</v>
       </c>
       <c r="E90" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G90" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="91" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2091,7 +2091,7 @@
         <v>151</v>
       </c>
       <c r="G91" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="92" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2103,7 +2103,7 @@
         <v>138</v>
       </c>
       <c r="G92" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.25">
@@ -2115,7 +2115,7 @@
         <v>149</v>
       </c>
       <c r="G93" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.25">
@@ -2127,7 +2127,7 @@
         <v>146</v>
       </c>
       <c r="G94" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.25">
@@ -2139,7 +2139,7 @@
         <v>147</v>
       </c>
       <c r="G95" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.25">
@@ -2151,7 +2151,7 @@
         <v>148</v>
       </c>
       <c r="G96" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.25">
@@ -2163,7 +2163,7 @@
         <v>152</v>
       </c>
       <c r="G97" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.25">
@@ -2175,7 +2175,7 @@
         <v>153</v>
       </c>
       <c r="G98" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.25">
@@ -2183,103 +2183,103 @@
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B100" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E100" t="s">
+        <v>248</v>
+      </c>
+      <c r="G100" t="s">
         <v>249</v>
-      </c>
-      <c r="G100" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="101" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="10"/>
       <c r="C101" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E101" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G101" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="102" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="10"/>
       <c r="C102" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E102" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G102" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="103" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="10"/>
       <c r="C103" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E103" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G103" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="104" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="10"/>
       <c r="E104" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G104" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="105" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="10"/>
       <c r="E105" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G105" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="106" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="10"/>
       <c r="E106" t="s">
+        <v>244</v>
+      </c>
+      <c r="G106" t="s">
         <v>245</v>
-      </c>
-      <c r="G106" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="107" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="10"/>
       <c r="E107" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G107" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="108" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="10"/>
       <c r="E108" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G108" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="109" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="10"/>
       <c r="E109" t="s">
+        <v>246</v>
+      </c>
+      <c r="G109" t="s">
         <v>247</v>
-      </c>
-      <c r="G109" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="112" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2293,7 +2293,7 @@
         <v>2</v>
       </c>
       <c r="G112" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="113" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2305,7 +2305,7 @@
         <v>2</v>
       </c>
       <c r="G113" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="114" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2317,7 +2317,7 @@
         <v>2</v>
       </c>
       <c r="G114" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="115" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2329,7 +2329,7 @@
         <v>2</v>
       </c>
       <c r="G115" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="116" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2341,7 +2341,7 @@
         <v>2</v>
       </c>
       <c r="G116" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="117" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2353,7 +2353,7 @@
         <v>2</v>
       </c>
       <c r="G117" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="118" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2365,7 +2365,7 @@
         <v>2</v>
       </c>
       <c r="G118" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="119" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -2382,7 +2382,7 @@
         <v>154</v>
       </c>
       <c r="G121" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.25">
@@ -2394,7 +2394,7 @@
         <v>155</v>
       </c>
       <c r="G122" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.25">
@@ -2406,7 +2406,7 @@
         <v>156</v>
       </c>
       <c r="G123" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.25">
@@ -2418,7 +2418,7 @@
         <v>157</v>
       </c>
       <c r="G124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.25">
@@ -2430,7 +2430,7 @@
         <v>159</v>
       </c>
       <c r="G125" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.25">
@@ -2442,7 +2442,7 @@
         <v>160</v>
       </c>
       <c r="G126" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.25">
@@ -2454,7 +2454,7 @@
         <v>161</v>
       </c>
       <c r="G127" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.25">
@@ -2466,53 +2466,53 @@
         <v>162</v>
       </c>
       <c r="G128" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B131" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E131" t="s">
         <v>233</v>
       </c>
-      <c r="E131" t="s">
+      <c r="G131" t="s">
         <v>234</v>
-      </c>
-      <c r="G131" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B132" s="8"/>
       <c r="E132" t="s">
+        <v>235</v>
+      </c>
+      <c r="G132" t="s">
         <v>236</v>
-      </c>
-      <c r="G132" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B133" s="8"/>
       <c r="E133" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G133" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="134" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B134" s="8"/>
       <c r="E134" t="s">
+        <v>238</v>
+      </c>
+      <c r="G134" t="s">
         <v>239</v>
-      </c>
-      <c r="G134" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="135" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E135" t="s">
+        <v>242</v>
+      </c>
+      <c r="G135" t="s">
         <v>243</v>
-      </c>
-      <c r="G135" t="s">
-        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/addons/GearSwap/beta_examples_and_information/Variable Remapping.xlsx
+++ b/addons/GearSwap/beta_examples_and_information/Variable Remapping.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="254">
   <si>
     <t>Old Variable Name</t>
   </si>
@@ -782,6 +782,15 @@
   </si>
   <si>
     <t>Comparable to Include.</t>
+  </si>
+  <si>
+    <t>baseset property</t>
+  </si>
+  <si>
+    <t>set_combine(set1,set2)</t>
+  </si>
+  <si>
+    <t>Combines set1 and set2 and returns the resulting set. In the event of conflicts, set2 is given preference over set1.</t>
   </si>
 </sst>
 </file>
@@ -1173,10 +1182,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G135"/>
+  <dimension ref="B1:G136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="G89" sqref="G89"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2106,7 +2115,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="8"/>
       <c r="C93" t="s">
         <v>2</v>
@@ -2118,7 +2127,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="8"/>
       <c r="C94" t="s">
         <v>2</v>
@@ -2130,7 +2139,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="8"/>
       <c r="C95" t="s">
         <v>2</v>
@@ -2142,7 +2151,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="8"/>
       <c r="C96" t="s">
         <v>2</v>
@@ -2154,7 +2163,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="8"/>
       <c r="C97" t="s">
         <v>2</v>
@@ -2166,7 +2175,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="8"/>
       <c r="C98" t="s">
         <v>2</v>
@@ -2179,38 +2188,38 @@
       </c>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B99" s="2"/>
+      <c r="B99" s="8"/>
+      <c r="C99" t="s">
+        <v>251</v>
+      </c>
+      <c r="E99" t="s">
+        <v>252</v>
+      </c>
+      <c r="G99" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B100" s="10" t="s">
+      <c r="B100" s="2"/>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B101" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E101" t="s">
         <v>248</v>
       </c>
-      <c r="G100" t="s">
+      <c r="G101" t="s">
         <v>249</v>
-      </c>
-    </row>
-    <row r="101" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="10"/>
-      <c r="C101" t="s">
-        <v>218</v>
-      </c>
-      <c r="E101" t="s">
-        <v>226</v>
-      </c>
-      <c r="G101" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="102" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="10"/>
       <c r="C102" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E102" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G102" t="s">
         <v>229</v>
@@ -2219,10 +2228,10 @@
     <row r="103" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="10"/>
       <c r="C103" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E103" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G103" t="s">
         <v>229</v>
@@ -2230,8 +2239,11 @@
     </row>
     <row r="104" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="10"/>
+      <c r="C104" t="s">
+        <v>220</v>
+      </c>
       <c r="E104" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G104" t="s">
         <v>229</v>
@@ -2240,7 +2252,7 @@
     <row r="105" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="10"/>
       <c r="E105" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G105" t="s">
         <v>229</v>
@@ -2249,93 +2261,90 @@
     <row r="106" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="10"/>
       <c r="E106" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="G106" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
     </row>
     <row r="107" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="10"/>
       <c r="E107" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="G107" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
     </row>
     <row r="108" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="10"/>
       <c r="E108" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G108" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="109" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="10"/>
       <c r="E109" t="s">
+        <v>228</v>
+      </c>
+      <c r="G109" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="10"/>
+      <c r="E110" t="s">
         <v>246</v>
       </c>
-      <c r="G109" t="s">
+      <c r="G110" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="112" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="8" t="s">
+    <row r="113" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C113" t="s">
         <v>135</v>
       </c>
-      <c r="E112" t="s">
-        <v>2</v>
-      </c>
-      <c r="G112" t="s">
+      <c r="E113" t="s">
+        <v>2</v>
+      </c>
+      <c r="G113" t="s">
         <v>204</v>
-      </c>
-    </row>
-    <row r="113" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="8"/>
-      <c r="C113" t="s">
-        <v>124</v>
-      </c>
-      <c r="E113" t="s">
-        <v>2</v>
-      </c>
-      <c r="G113" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="114" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="8"/>
       <c r="C114" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E114" t="s">
         <v>2</v>
       </c>
       <c r="G114" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="115" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="8"/>
       <c r="C115" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E115" t="s">
         <v>2</v>
       </c>
       <c r="G115" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="116" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="8"/>
       <c r="C116" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E116" t="s">
         <v>2</v>
@@ -2347,54 +2356,54 @@
     <row r="117" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="8"/>
       <c r="C117" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E117" t="s">
         <v>2</v>
       </c>
       <c r="G117" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="118" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="8"/>
       <c r="C118" t="s">
+        <v>137</v>
+      </c>
+      <c r="E118" t="s">
+        <v>2</v>
+      </c>
+      <c r="G118" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="8"/>
+      <c r="C119" t="s">
         <v>130</v>
       </c>
-      <c r="E118" t="s">
-        <v>2</v>
-      </c>
-      <c r="G118" t="s">
+      <c r="E119" t="s">
+        <v>2</v>
+      </c>
+      <c r="G119" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="119" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="3"/>
-    </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B121" s="10" t="s">
+    <row r="120" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="3"/>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B122" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="C121" t="s">
-        <v>2</v>
-      </c>
-      <c r="E121" t="s">
+      <c r="C122" t="s">
+        <v>2</v>
+      </c>
+      <c r="E122" t="s">
         <v>154</v>
       </c>
-      <c r="G121" t="s">
+      <c r="G122" t="s">
         <v>210</v>
-      </c>
-    </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B122" s="10"/>
-      <c r="C122" t="s">
-        <v>2</v>
-      </c>
-      <c r="E122" t="s">
-        <v>155</v>
-      </c>
-      <c r="G122" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.25">
@@ -2403,10 +2412,10 @@
         <v>2</v>
       </c>
       <c r="E123" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G123" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.25">
@@ -2415,10 +2424,10 @@
         <v>2</v>
       </c>
       <c r="E124" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G124" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.25">
@@ -2427,10 +2436,10 @@
         <v>2</v>
       </c>
       <c r="E125" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G125" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.25">
@@ -2439,10 +2448,10 @@
         <v>2</v>
       </c>
       <c r="E126" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G126" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.25">
@@ -2451,10 +2460,10 @@
         <v>2</v>
       </c>
       <c r="E127" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G127" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.25">
@@ -2463,72 +2472,84 @@
         <v>2</v>
       </c>
       <c r="E128" t="s">
+        <v>161</v>
+      </c>
+      <c r="G128" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B129" s="10"/>
+      <c r="C129" t="s">
+        <v>2</v>
+      </c>
+      <c r="E129" t="s">
         <v>162</v>
       </c>
-      <c r="G128" t="s">
+      <c r="G129" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B131" s="8" t="s">
+    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B132" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="E131" t="s">
+      <c r="E132" t="s">
         <v>233</v>
       </c>
-      <c r="G131" t="s">
+      <c r="G132" t="s">
         <v>234</v>
-      </c>
-    </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B132" s="8"/>
-      <c r="E132" t="s">
-        <v>235</v>
-      </c>
-      <c r="G132" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B133" s="8"/>
       <c r="E133" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G133" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="134" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B134" s="8"/>
       <c r="E134" t="s">
+        <v>237</v>
+      </c>
+      <c r="G134" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B135" s="8"/>
+      <c r="E135" t="s">
         <v>238</v>
       </c>
-      <c r="G134" t="s">
+      <c r="G135" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E135" t="s">
+    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E136" t="s">
         <v>242</v>
       </c>
-      <c r="G135" t="s">
+      <c r="G136" t="s">
         <v>243</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B131:B134"/>
+    <mergeCell ref="B132:B135"/>
     <mergeCell ref="C2:G2"/>
-    <mergeCell ref="B86:B98"/>
-    <mergeCell ref="B121:B128"/>
+    <mergeCell ref="B122:B129"/>
     <mergeCell ref="B78:B81"/>
-    <mergeCell ref="B112:B118"/>
+    <mergeCell ref="B113:B119"/>
     <mergeCell ref="B22:B51"/>
     <mergeCell ref="B4:B19"/>
     <mergeCell ref="B55:B60"/>
     <mergeCell ref="B63:B65"/>
     <mergeCell ref="B68:B75"/>
-    <mergeCell ref="B100:B109"/>
+    <mergeCell ref="B101:B110"/>
+    <mergeCell ref="B86:B99"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/addons/GearSwap/beta_examples_and_information/Variable Remapping.xlsx
+++ b/addons/GearSwap/beta_examples_and_information/Variable Remapping.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="255">
   <si>
     <t>Old Variable Name</t>
   </si>
@@ -439,9 +439,6 @@
   </si>
   <si>
     <t>addtochat</t>
-  </si>
-  <si>
-    <t>require 'data/user_file_name.lua'</t>
   </si>
   <si>
     <t>spell.name</t>
@@ -658,9 +655,6 @@
     <t>Shortcuts handles this now.</t>
   </si>
   <si>
-    <t>Changespell was mostly useful for things like trigger spells, which are no longer necessary. I can add it if desired, but I hope it's not.</t>
-  </si>
-  <si>
     <t>String analysis and interpretation.</t>
   </si>
   <si>
@@ -781,9 +775,6 @@
     <t>Called once on load. Used to define variables, and specifically "sets"</t>
   </si>
   <si>
-    <t>Comparable to Include.</t>
-  </si>
-  <si>
     <t>baseset property</t>
   </si>
   <si>
@@ -791,6 +782,18 @@
   </si>
   <si>
     <t>Combines set1 and set2 and returns the resulting set. In the event of conflicts, set2 is given preference over set1.</t>
+  </si>
+  <si>
+    <t>require('data/user_file_name.lua')</t>
+  </si>
+  <si>
+    <t>Comparable to Include, but require puts everything into GearSwap with global scope. In order to change variables in your environment, you'll need to put "user_env." in front of them.</t>
+  </si>
+  <si>
+    <t>Use cancel_spell() and send_command('new spell').</t>
+  </si>
+  <si>
+    <t>Changespell was mostly useful for things like trigger spells, which are no longer necessary. You can do the same thing using cancel_spell() and send_command().</t>
   </si>
 </sst>
 </file>
@@ -1182,10 +1185,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G136"/>
+  <dimension ref="B1:G137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="G121" sqref="G121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1208,12 +1211,12 @@
       </c>
       <c r="F1" s="7"/>
       <c r="G1" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C2" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
@@ -1228,10 +1231,10 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
@@ -1243,7 +1246,7 @@
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
@@ -1255,7 +1258,7 @@
         <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
@@ -1267,7 +1270,7 @@
         <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
@@ -1279,7 +1282,7 @@
         <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
@@ -1291,7 +1294,7 @@
         <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
@@ -1303,7 +1306,7 @@
         <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
@@ -1315,7 +1318,7 @@
         <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
@@ -1327,7 +1330,7 @@
         <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
@@ -1339,7 +1342,7 @@
         <v>21</v>
       </c>
       <c r="G13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
@@ -1351,7 +1354,7 @@
         <v>78</v>
       </c>
       <c r="G14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
@@ -1363,7 +1366,7 @@
         <v>80</v>
       </c>
       <c r="G15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
@@ -1375,7 +1378,7 @@
         <v>82</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
@@ -1387,7 +1390,7 @@
         <v>84</v>
       </c>
       <c r="G17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
@@ -1399,7 +1402,7 @@
         <v>86</v>
       </c>
       <c r="G18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
@@ -1411,7 +1414,7 @@
         <v>88</v>
       </c>
       <c r="G19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
@@ -1425,7 +1428,7 @@
         <v>24</v>
       </c>
       <c r="G22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
@@ -1437,7 +1440,7 @@
         <v>27</v>
       </c>
       <c r="G23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
@@ -1449,7 +1452,7 @@
         <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
@@ -1461,7 +1464,7 @@
         <v>34</v>
       </c>
       <c r="G25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
@@ -1473,7 +1476,7 @@
         <v>36</v>
       </c>
       <c r="G26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
@@ -1485,7 +1488,7 @@
         <v>39</v>
       </c>
       <c r="G27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
@@ -1497,7 +1500,7 @@
         <v>40</v>
       </c>
       <c r="G28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
@@ -1509,7 +1512,7 @@
         <v>42</v>
       </c>
       <c r="G29" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
@@ -1521,7 +1524,7 @@
         <v>44</v>
       </c>
       <c r="G30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
@@ -1533,7 +1536,7 @@
         <v>49</v>
       </c>
       <c r="G31" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
@@ -1545,7 +1548,7 @@
         <v>50</v>
       </c>
       <c r="G32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
@@ -1557,7 +1560,7 @@
         <v>51</v>
       </c>
       <c r="G33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
@@ -1569,7 +1572,7 @@
         <v>52</v>
       </c>
       <c r="G34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
@@ -1581,7 +1584,7 @@
         <v>55</v>
       </c>
       <c r="G35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
@@ -1593,7 +1596,7 @@
         <v>57</v>
       </c>
       <c r="G36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
@@ -1605,7 +1608,7 @@
         <v>89</v>
       </c>
       <c r="G37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
@@ -1617,7 +1620,7 @@
         <v>90</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
@@ -1629,7 +1632,7 @@
         <v>91</v>
       </c>
       <c r="G39" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
@@ -1641,7 +1644,7 @@
         <v>92</v>
       </c>
       <c r="G40" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
@@ -1653,7 +1656,7 @@
         <v>93</v>
       </c>
       <c r="G41" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
@@ -1662,7 +1665,7 @@
         <v>94</v>
       </c>
       <c r="G42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
@@ -1671,7 +1674,7 @@
         <v>95</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
@@ -1683,7 +1686,7 @@
         <v>96</v>
       </c>
       <c r="G44" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
@@ -1692,7 +1695,7 @@
         <v>97</v>
       </c>
       <c r="G45" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
@@ -1701,7 +1704,7 @@
         <v>98</v>
       </c>
       <c r="G46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
@@ -1713,7 +1716,7 @@
         <v>120</v>
       </c>
       <c r="G47" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
@@ -1725,7 +1728,7 @@
         <v>121</v>
       </c>
       <c r="G48" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
@@ -1737,7 +1740,7 @@
         <v>122</v>
       </c>
       <c r="G49" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
@@ -1749,7 +1752,7 @@
         <v>123</v>
       </c>
       <c r="G50" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
@@ -1769,7 +1772,7 @@
         <v>106</v>
       </c>
       <c r="G55" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
@@ -1781,7 +1784,7 @@
         <v>108</v>
       </c>
       <c r="G56" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
@@ -1793,7 +1796,7 @@
         <v>110</v>
       </c>
       <c r="G57" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
@@ -1805,7 +1808,7 @@
         <v>112</v>
       </c>
       <c r="G58" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
@@ -1817,7 +1820,7 @@
         <v>114</v>
       </c>
       <c r="G59" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
@@ -1829,7 +1832,7 @@
         <v>2</v>
       </c>
       <c r="G60" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
@@ -1843,7 +1846,7 @@
         <v>2</v>
       </c>
       <c r="G63" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.25">
@@ -1855,7 +1858,7 @@
         <v>2</v>
       </c>
       <c r="G64" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
@@ -1867,7 +1870,7 @@
         <v>2</v>
       </c>
       <c r="G65" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
@@ -1881,7 +1884,7 @@
         <v>30</v>
       </c>
       <c r="G68" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
@@ -1893,7 +1896,7 @@
         <v>59</v>
       </c>
       <c r="G69" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.25">
@@ -1905,7 +1908,7 @@
         <v>61</v>
       </c>
       <c r="G70" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.25">
@@ -1917,7 +1920,7 @@
         <v>62</v>
       </c>
       <c r="G71" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.25">
@@ -1929,7 +1932,7 @@
         <v>65</v>
       </c>
       <c r="G72" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">
@@ -1941,7 +1944,7 @@
         <v>67</v>
       </c>
       <c r="G73" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
@@ -1953,7 +1956,7 @@
         <v>70</v>
       </c>
       <c r="G74" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.25">
@@ -1965,21 +1968,21 @@
         <v>71</v>
       </c>
       <c r="G75" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C78" t="s">
         <v>53</v>
       </c>
       <c r="E78" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G78" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
@@ -1988,10 +1991,10 @@
         <v>2</v>
       </c>
       <c r="E79" t="s">
+        <v>182</v>
+      </c>
+      <c r="G79" t="s">
         <v>183</v>
-      </c>
-      <c r="G79" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.25">
@@ -2000,10 +2003,10 @@
         <v>2</v>
       </c>
       <c r="E80" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G80" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.25">
@@ -2012,10 +2015,10 @@
         <v>2</v>
       </c>
       <c r="E81" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G81" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="83" spans="2:7" ht="21" x14ac:dyDescent="0.4">
@@ -2037,10 +2040,10 @@
         <v>131</v>
       </c>
       <c r="E86" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G86" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="87" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2049,10 +2052,10 @@
         <v>132</v>
       </c>
       <c r="E87" t="s">
+        <v>190</v>
+      </c>
+      <c r="G87" t="s">
         <v>191</v>
-      </c>
-      <c r="G87" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="88" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2061,10 +2064,10 @@
         <v>139</v>
       </c>
       <c r="E88" t="s">
-        <v>141</v>
+        <v>251</v>
       </c>
       <c r="G88" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="89" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2073,10 +2076,10 @@
         <v>140</v>
       </c>
       <c r="E89" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G89" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="90" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2085,22 +2088,22 @@
         <v>125</v>
       </c>
       <c r="E90" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G90" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="91" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="8"/>
       <c r="C91" t="s">
+        <v>149</v>
+      </c>
+      <c r="E91" t="s">
         <v>150</v>
       </c>
-      <c r="E91" t="s">
-        <v>151</v>
-      </c>
       <c r="G91" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="92" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2112,7 +2115,7 @@
         <v>138</v>
       </c>
       <c r="G92" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="93" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2121,10 +2124,10 @@
         <v>2</v>
       </c>
       <c r="E93" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G93" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="94" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2133,10 +2136,10 @@
         <v>2</v>
       </c>
       <c r="E94" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G94" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="95" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2145,10 +2148,10 @@
         <v>2</v>
       </c>
       <c r="E95" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G95" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="96" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2157,10 +2160,10 @@
         <v>2</v>
       </c>
       <c r="E96" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G96" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="97" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2169,10 +2172,10 @@
         <v>2</v>
       </c>
       <c r="E97" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G97" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="98" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2181,241 +2184,241 @@
         <v>2</v>
       </c>
       <c r="E98" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G98" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="8"/>
       <c r="C99" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E99" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G99" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B100" s="8"/>
+      <c r="C100" t="s">
+        <v>130</v>
+      </c>
+      <c r="E100" t="s">
+        <v>2</v>
+      </c>
+      <c r="G100" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B100" s="2"/>
-    </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B101" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="E101" t="s">
-        <v>248</v>
-      </c>
-      <c r="G101" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="102" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="10"/>
-      <c r="C102" t="s">
-        <v>218</v>
+      <c r="B101" s="2"/>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B102" s="10" t="s">
+        <v>225</v>
       </c>
       <c r="E102" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="G102" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
     </row>
     <row r="103" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="10"/>
       <c r="C103" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E103" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G103" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="104" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="10"/>
       <c r="C104" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E104" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G104" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="105" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="10"/>
+      <c r="C105" t="s">
+        <v>218</v>
+      </c>
       <c r="E105" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G105" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="106" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="10"/>
       <c r="E106" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G106" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="107" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="10"/>
       <c r="E107" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="G107" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
     </row>
     <row r="108" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="10"/>
       <c r="E108" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="G108" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
     </row>
     <row r="109" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="10"/>
       <c r="E109" t="s">
+        <v>219</v>
+      </c>
+      <c r="G109" t="s">
         <v>228</v>
-      </c>
-      <c r="G109" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="110" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="10"/>
       <c r="E110" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="G110" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="113" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="10"/>
+      <c r="E111" t="s">
+        <v>244</v>
+      </c>
+      <c r="G111" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C114" t="s">
         <v>135</v>
       </c>
-      <c r="E113" t="s">
-        <v>2</v>
-      </c>
-      <c r="G113" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="114" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="8"/>
-      <c r="C114" t="s">
-        <v>124</v>
-      </c>
       <c r="E114" t="s">
         <v>2</v>
       </c>
       <c r="G114" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="115" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="8"/>
       <c r="C115" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E115" t="s">
         <v>2</v>
       </c>
       <c r="G115" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="116" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="8"/>
       <c r="C116" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E116" t="s">
         <v>2</v>
       </c>
       <c r="G116" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="117" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="8"/>
       <c r="C117" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E117" t="s">
         <v>2</v>
       </c>
       <c r="G117" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="118" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="8"/>
       <c r="C118" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E118" t="s">
         <v>2</v>
       </c>
       <c r="G118" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="119" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="8"/>
       <c r="C119" t="s">
+        <v>137</v>
+      </c>
+      <c r="E119" t="s">
+        <v>2</v>
+      </c>
+      <c r="G119" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="8"/>
+      <c r="C120" t="s">
         <v>130</v>
       </c>
-      <c r="E119" t="s">
-        <v>2</v>
-      </c>
-      <c r="G119" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="120" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="3"/>
-    </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B122" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C122" t="s">
-        <v>2</v>
-      </c>
-      <c r="E122" t="s">
-        <v>154</v>
-      </c>
-      <c r="G122" t="s">
-        <v>210</v>
-      </c>
+      <c r="E120" t="s">
+        <v>2</v>
+      </c>
+      <c r="G120" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="3"/>
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B123" s="10"/>
+      <c r="B123" s="10" t="s">
+        <v>157</v>
+      </c>
       <c r="C123" t="s">
         <v>2</v>
       </c>
       <c r="E123" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G123" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.25">
@@ -2424,10 +2427,10 @@
         <v>2</v>
       </c>
       <c r="E124" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G124" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.25">
@@ -2436,10 +2439,10 @@
         <v>2</v>
       </c>
       <c r="E125" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G125" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.25">
@@ -2448,10 +2451,10 @@
         <v>2</v>
       </c>
       <c r="E126" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G126" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.25">
@@ -2460,10 +2463,10 @@
         <v>2</v>
       </c>
       <c r="E127" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G127" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.25">
@@ -2472,10 +2475,10 @@
         <v>2</v>
       </c>
       <c r="E128" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G128" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.25">
@@ -2484,72 +2487,84 @@
         <v>2</v>
       </c>
       <c r="E129" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G129" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B132" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B130" s="10"/>
+      <c r="C130" t="s">
+        <v>2</v>
+      </c>
+      <c r="E130" t="s">
+        <v>161</v>
+      </c>
+      <c r="G130" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B133" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E133" t="s">
+        <v>231</v>
+      </c>
+      <c r="G133" t="s">
         <v>232</v>
-      </c>
-      <c r="E132" t="s">
-        <v>233</v>
-      </c>
-      <c r="G132" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B133" s="8"/>
-      <c r="E133" t="s">
-        <v>235</v>
-      </c>
-      <c r="G133" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="134" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B134" s="8"/>
       <c r="E134" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G134" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="135" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B135" s="8"/>
       <c r="E135" t="s">
+        <v>235</v>
+      </c>
+      <c r="G135" t="s">
         <v>238</v>
       </c>
-      <c r="G135" t="s">
-        <v>239</v>
-      </c>
     </row>
     <row r="136" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B136" s="8"/>
       <c r="E136" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G136" t="s">
-        <v>243</v>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E137" t="s">
+        <v>240</v>
+      </c>
+      <c r="G137" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B132:B135"/>
+    <mergeCell ref="B133:B136"/>
     <mergeCell ref="C2:G2"/>
-    <mergeCell ref="B122:B129"/>
+    <mergeCell ref="B123:B130"/>
     <mergeCell ref="B78:B81"/>
-    <mergeCell ref="B113:B119"/>
+    <mergeCell ref="B114:B120"/>
     <mergeCell ref="B22:B51"/>
     <mergeCell ref="B4:B19"/>
     <mergeCell ref="B55:B60"/>
     <mergeCell ref="B63:B65"/>
     <mergeCell ref="B68:B75"/>
-    <mergeCell ref="B101:B110"/>
-    <mergeCell ref="B86:B99"/>
+    <mergeCell ref="B102:B111"/>
+    <mergeCell ref="B86:B100"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/addons/GearSwap/beta_examples_and_information/Variable Remapping.xlsx
+++ b/addons/GearSwap/beta_examples_and_information/Variable Remapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="22980" windowHeight="9525"/>
+    <workbookView xWindow="0" yWindow="72" windowWidth="22980" windowHeight="9528"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="256">
   <si>
     <t>Old Variable Name</t>
   </si>
@@ -794,6 +794,9 @@
   </si>
   <si>
     <t>Changespell was mostly useful for things like trigger spells, which are no longer necessary. You can do the same thing using cancel_spell() and send_command().</t>
+  </si>
+  <si>
+    <t>Stores the number of a given buff that is active. Keys are lower case buff names, so buffactive['light arts'] would be nil or 1 depending whether or not you have light arts up.</t>
   </si>
 </sst>
 </file>
@@ -1187,21 +1190,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="G121" sqref="G121"/>
+    <sheetView tabSelected="1" topLeftCell="G77" workbookViewId="0">
+      <selection activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="124.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="124.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="25.9" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:7" ht="25.95" x14ac:dyDescent="0.5">
       <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1214,7 +1217,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C2" s="9" t="s">
         <v>143</v>
       </c>
@@ -1223,7 +1226,7 @@
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>22</v>
       </c>
@@ -1237,7 +1240,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="8"/>
       <c r="C5" t="s">
         <v>4</v>
@@ -1249,7 +1252,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" t="s">
         <v>6</v>
@@ -1261,7 +1264,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="8"/>
       <c r="C7" t="s">
         <v>8</v>
@@ -1273,7 +1276,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="8"/>
       <c r="C8" t="s">
         <v>10</v>
@@ -1285,7 +1288,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="8"/>
       <c r="C9" t="s">
         <v>12</v>
@@ -1297,7 +1300,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="8"/>
       <c r="C10" t="s">
         <v>14</v>
@@ -1309,7 +1312,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="8"/>
       <c r="C11" t="s">
         <v>16</v>
@@ -1321,7 +1324,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="8"/>
       <c r="C12" t="s">
         <v>18</v>
@@ -1333,7 +1336,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="8"/>
       <c r="C13" t="s">
         <v>20</v>
@@ -1345,7 +1348,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="8"/>
       <c r="C14" t="s">
         <v>77</v>
@@ -1357,7 +1360,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="8"/>
       <c r="C15" t="s">
         <v>79</v>
@@ -1369,7 +1372,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="8"/>
       <c r="C16" t="s">
         <v>81</v>
@@ -1381,7 +1384,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="8"/>
       <c r="C17" t="s">
         <v>83</v>
@@ -1393,7 +1396,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="8"/>
       <c r="C18" t="s">
         <v>85</v>
@@ -1405,7 +1408,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="8"/>
       <c r="C19" t="s">
         <v>87</v>
@@ -1417,7 +1420,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>23</v>
       </c>
@@ -1431,7 +1434,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>26</v>
@@ -1443,7 +1446,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="8"/>
       <c r="C24" t="s">
         <v>31</v>
@@ -1455,7 +1458,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="8"/>
       <c r="C25" t="s">
         <v>33</v>
@@ -1467,7 +1470,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="8"/>
       <c r="C26" t="s">
         <v>35</v>
@@ -1479,7 +1482,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="8"/>
       <c r="C27" t="s">
         <v>37</v>
@@ -1491,7 +1494,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="8"/>
       <c r="C28" t="s">
         <v>38</v>
@@ -1503,7 +1506,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="8"/>
       <c r="C29" t="s">
         <v>41</v>
@@ -1515,7 +1518,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="8"/>
       <c r="C30" t="s">
         <v>43</v>
@@ -1527,7 +1530,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="8"/>
       <c r="C31" t="s">
         <v>45</v>
@@ -1539,7 +1542,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="8"/>
       <c r="C32" t="s">
         <v>46</v>
@@ -1551,7 +1554,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="8"/>
       <c r="C33" t="s">
         <v>47</v>
@@ -1563,7 +1566,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="8"/>
       <c r="C34" t="s">
         <v>48</v>
@@ -1575,7 +1578,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="8"/>
       <c r="C35" t="s">
         <v>54</v>
@@ -1587,7 +1590,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="8"/>
       <c r="C36" t="s">
         <v>56</v>
@@ -1599,7 +1602,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="8"/>
       <c r="C37" t="s">
         <v>72</v>
@@ -1611,7 +1614,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="8"/>
       <c r="C38" t="s">
         <v>73</v>
@@ -1623,7 +1626,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="8"/>
       <c r="C39" t="s">
         <v>74</v>
@@ -1635,7 +1638,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="8"/>
       <c r="C40" t="s">
         <v>75</v>
@@ -1647,7 +1650,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="8"/>
       <c r="C41" t="s">
         <v>76</v>
@@ -1659,7 +1662,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="8"/>
       <c r="E42" t="s">
         <v>94</v>
@@ -1668,7 +1671,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="8"/>
       <c r="E43" t="s">
         <v>95</v>
@@ -1677,7 +1680,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="8"/>
       <c r="C44" t="s">
         <v>2</v>
@@ -1689,7 +1692,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="8"/>
       <c r="E45" t="s">
         <v>97</v>
@@ -1698,7 +1701,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" s="8"/>
       <c r="E46" t="s">
         <v>98</v>
@@ -1707,7 +1710,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B47" s="8"/>
       <c r="C47" t="s">
         <v>99</v>
@@ -1719,7 +1722,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B48" s="8"/>
       <c r="C48" t="s">
         <v>100</v>
@@ -1731,7 +1734,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B49" s="8"/>
       <c r="C49" t="s">
         <v>101</v>
@@ -1743,7 +1746,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B50" s="8"/>
       <c r="C50" t="s">
         <v>102</v>
@@ -1755,13 +1758,13 @@
         <v>174</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B51" s="8"/>
       <c r="C51" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>104</v>
       </c>
@@ -1775,7 +1778,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B56" s="8"/>
       <c r="C56" t="s">
         <v>107</v>
@@ -1787,7 +1790,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B57" s="8"/>
       <c r="C57" t="s">
         <v>109</v>
@@ -1799,7 +1802,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B58" s="8"/>
       <c r="C58" t="s">
         <v>111</v>
@@ -1811,7 +1814,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B59" s="8"/>
       <c r="C59" t="s">
         <v>115</v>
@@ -1823,7 +1826,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B60" s="8"/>
       <c r="C60" t="s">
         <v>113</v>
@@ -1835,7 +1838,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>116</v>
       </c>
@@ -1849,7 +1852,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B64" s="8"/>
       <c r="C64" t="s">
         <v>118</v>
@@ -1861,7 +1864,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B65" s="8"/>
       <c r="C65" t="s">
         <v>119</v>
@@ -1873,7 +1876,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>29</v>
       </c>
@@ -1887,7 +1890,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B69" s="8"/>
       <c r="C69" t="s">
         <v>58</v>
@@ -1899,7 +1902,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B70" s="8"/>
       <c r="C70" t="s">
         <v>60</v>
@@ -1911,7 +1914,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B71" s="8"/>
       <c r="C71" t="s">
         <v>63</v>
@@ -1923,7 +1926,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B72" s="8"/>
       <c r="C72" t="s">
         <v>64</v>
@@ -1935,7 +1938,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B73" s="8"/>
       <c r="C73" t="s">
         <v>66</v>
@@ -1947,7 +1950,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B74" s="8"/>
       <c r="C74" t="s">
         <v>68</v>
@@ -1959,7 +1962,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B75" s="8"/>
       <c r="C75" t="s">
         <v>69</v>
@@ -1971,7 +1974,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>181</v>
       </c>
@@ -1985,7 +1988,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B79" s="8"/>
       <c r="C79" t="s">
         <v>2</v>
@@ -1997,7 +2000,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B80" s="8"/>
       <c r="C80" t="s">
         <v>2</v>
@@ -2009,7 +2012,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B81" s="8"/>
       <c r="C81" t="s">
         <v>2</v>
@@ -2031,8 +2034,11 @@
       <c r="E83" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="86" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G83" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86" s="8" t="s">
         <v>127</v>
       </c>
@@ -2046,7 +2052,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="87" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B87" s="8"/>
       <c r="C87" t="s">
         <v>132</v>
@@ -2058,7 +2064,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="88" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88" s="8"/>
       <c r="C88" t="s">
         <v>139</v>
@@ -2070,7 +2076,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="89" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B89" s="8"/>
       <c r="C89" t="s">
         <v>140</v>
@@ -2082,7 +2088,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="90" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B90" s="8"/>
       <c r="C90" t="s">
         <v>125</v>
@@ -2094,7 +2100,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="91" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="8"/>
       <c r="C91" t="s">
         <v>149</v>
@@ -2106,7 +2112,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="92" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B92" s="8"/>
       <c r="C92" t="s">
         <v>2</v>
@@ -2118,7 +2124,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="93" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B93" s="8"/>
       <c r="C93" t="s">
         <v>2</v>
@@ -2130,7 +2136,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="94" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="8"/>
       <c r="C94" t="s">
         <v>2</v>
@@ -2142,7 +2148,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="95" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95" s="8"/>
       <c r="C95" t="s">
         <v>2</v>
@@ -2154,7 +2160,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="96" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B96" s="8"/>
       <c r="C96" t="s">
         <v>2</v>
@@ -2166,7 +2172,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="97" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B97" s="8"/>
       <c r="C97" t="s">
         <v>2</v>
@@ -2178,7 +2184,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="98" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="8"/>
       <c r="C98" t="s">
         <v>2</v>
@@ -2190,7 +2196,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="99" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B99" s="8"/>
       <c r="C99" t="s">
         <v>248</v>
@@ -2202,7 +2208,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B100" s="8"/>
       <c r="C100" t="s">
         <v>130</v>
@@ -2214,10 +2220,10 @@
         <v>253</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B101" s="2"/>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>225</v>
       </c>
@@ -2228,7 +2234,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="103" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B103" s="10"/>
       <c r="C103" t="s">
         <v>216</v>
@@ -2240,7 +2246,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="104" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B104" s="10"/>
       <c r="C104" t="s">
         <v>217</v>
@@ -2252,7 +2258,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="105" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B105" s="10"/>
       <c r="C105" t="s">
         <v>218</v>
@@ -2264,7 +2270,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="106" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B106" s="10"/>
       <c r="E106" t="s">
         <v>221</v>
@@ -2273,7 +2279,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="107" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B107" s="10"/>
       <c r="E107" t="s">
         <v>220</v>
@@ -2282,7 +2288,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="108" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B108" s="10"/>
       <c r="E108" t="s">
         <v>242</v>
@@ -2291,7 +2297,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="109" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B109" s="10"/>
       <c r="E109" t="s">
         <v>219</v>
@@ -2300,7 +2306,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="110" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B110" s="10"/>
       <c r="E110" t="s">
         <v>226</v>
@@ -2309,7 +2315,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="111" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B111" s="10"/>
       <c r="E111" t="s">
         <v>244</v>
@@ -2318,7 +2324,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="114" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
         <v>136</v>
       </c>
@@ -2332,7 +2338,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="115" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B115" s="8"/>
       <c r="C115" t="s">
         <v>124</v>
@@ -2344,7 +2350,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="116" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B116" s="8"/>
       <c r="C116" t="s">
         <v>126</v>
@@ -2356,7 +2362,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="117" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B117" s="8"/>
       <c r="C117" t="s">
         <v>133</v>
@@ -2368,7 +2374,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="118" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B118" s="8"/>
       <c r="C118" t="s">
         <v>134</v>
@@ -2380,7 +2386,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="119" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B119" s="8"/>
       <c r="C119" t="s">
         <v>137</v>
@@ -2392,7 +2398,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="120" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B120" s="8"/>
       <c r="C120" t="s">
         <v>130</v>
@@ -2404,10 +2410,10 @@
         <v>254</v>
       </c>
     </row>
-    <row r="121" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B121" s="3"/>
     </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B123" s="10" t="s">
         <v>157</v>
       </c>
@@ -2421,7 +2427,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B124" s="10"/>
       <c r="C124" t="s">
         <v>2</v>
@@ -2433,7 +2439,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B125" s="10"/>
       <c r="C125" t="s">
         <v>2</v>
@@ -2445,7 +2451,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B126" s="10"/>
       <c r="C126" t="s">
         <v>2</v>
@@ -2457,7 +2463,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B127" s="10"/>
       <c r="C127" t="s">
         <v>2</v>
@@ -2469,7 +2475,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B128" s="10"/>
       <c r="C128" t="s">
         <v>2</v>
@@ -2481,7 +2487,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B129" s="10"/>
       <c r="C129" t="s">
         <v>2</v>
@@ -2493,7 +2499,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B130" s="10"/>
       <c r="C130" t="s">
         <v>2</v>
@@ -2505,7 +2511,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>230</v>
       </c>
@@ -2516,7 +2522,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B134" s="8"/>
       <c r="E134" t="s">
         <v>233</v>
@@ -2525,7 +2531,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B135" s="8"/>
       <c r="E135" t="s">
         <v>235</v>
@@ -2534,7 +2540,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B136" s="8"/>
       <c r="E136" t="s">
         <v>236</v>
@@ -2543,7 +2549,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E137" t="s">
         <v>240</v>
       </c>
@@ -2577,7 +2583,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2589,7 +2595,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/addons/GearSwap/beta_examples_and_information/Variable Remapping.xlsx
+++ b/addons/GearSwap/beta_examples_and_information/Variable Remapping.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="257">
   <si>
     <t>Old Variable Name</t>
   </si>
@@ -797,6 +797,9 @@
   </si>
   <si>
     <t>Stores the number of a given buff that is active. Keys are lower case buff names, so buffactive['light arts'] would be nil or 1 depending whether or not you have light arts up.</t>
+  </si>
+  <si>
+    <t>Pulled from the player array. Uses "MON" as the code for monipulator. Value determines which Lua file is loaded.</t>
   </si>
 </sst>
 </file>
@@ -1190,8 +1193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G77" workbookViewId="0">
-      <selection activeCell="G83" sqref="G83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1539,7 +1542,7 @@
         <v>49</v>
       </c>
       <c r="G31" t="s">
-        <v>169</v>
+        <v>256</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.3">

--- a/addons/GearSwap/beta_examples_and_information/Variable Remapping.xlsx
+++ b/addons/GearSwap/beta_examples_and_information/Variable Remapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="72" windowWidth="22980" windowHeight="9528"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="22980" windowHeight="9525"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="261">
   <si>
     <t>Old Variable Name</t>
   </si>
@@ -468,15 +468,6 @@
     <t>command</t>
   </si>
   <si>
-    <t>send_command()</t>
-  </si>
-  <si>
-    <t>register_event()</t>
-  </si>
-  <si>
-    <t>write()</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
@@ -601,9 +592,6 @@
   </si>
   <si>
     <t>Delays the current spell by however many seconds you choose.</t>
-  </si>
-  <si>
-    <t>Sends a command to console. Be aware that this will (probably?) be picked up by Shortcuts and thus may be picked up again by Gearswap. Don't make an infinite loop.</t>
   </si>
   <si>
     <r>
@@ -634,9 +622,6 @@
     <t>Forces the command to be sent out. Can be used in combination with verify_equip() if you desire.</t>
   </si>
   <si>
-    <t>Allows users to register events in Lua that will be called by LuaCore directly. See the doku wiki for more details about options here. I'd call this "Advanced Mode."</t>
-  </si>
-  <si>
     <t>Writes directly to console.</t>
   </si>
   <si>
@@ -800,6 +785,33 @@
   </si>
   <si>
     <t>Pulled from the player array. Uses "MON" as the code for monipulator. Value determines which Lua file is loaded.</t>
+  </si>
+  <si>
+    <t>disable(slot1,slot2,...)</t>
+  </si>
+  <si>
+    <t>enable(slot1,slot2,...)</t>
+  </si>
+  <si>
+    <t>Disables gear swaps in a given slot.</t>
+  </si>
+  <si>
+    <t>Enables gear swaps in a given slot (reverses disable).</t>
+  </si>
+  <si>
+    <t>send_command(command)</t>
+  </si>
+  <si>
+    <t>write(phrase_to_write)</t>
+  </si>
+  <si>
+    <t>Sends a command to console. Be aware that this will (probably?) be picked up by Shortcuts and thus may be picked up again by Gearswap. Don't make an infinite loop. Also, forces the command to be prefixed by @.</t>
+  </si>
+  <si>
+    <t>windower.register_event()</t>
+  </si>
+  <si>
+    <t>Allows users to register events in Lua that will be called by LuaCore directly. See the doku wiki for more details about options here. I'd call this "Super Advanced Mode."</t>
   </si>
 </sst>
 </file>
@@ -1191,23 +1203,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G137"/>
+  <dimension ref="B1:G139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" customWidth="1"/>
-    <col min="5" max="5" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="124.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="124.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="25.95" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:7" ht="25.9" x14ac:dyDescent="0.5">
       <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1217,10 +1229,10 @@
       </c>
       <c r="F1" s="7"/>
       <c r="G1" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C2" s="9" t="s">
         <v>143</v>
       </c>
@@ -1229,7 +1241,7 @@
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>22</v>
       </c>
@@ -1240,10 +1252,10 @@
         <v>141</v>
       </c>
       <c r="G4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="8"/>
       <c r="C5" t="s">
         <v>4</v>
@@ -1252,10 +1264,10 @@
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" t="s">
         <v>6</v>
@@ -1264,10 +1276,10 @@
         <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="8"/>
       <c r="C7" t="s">
         <v>8</v>
@@ -1276,10 +1288,10 @@
         <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="8"/>
       <c r="C8" t="s">
         <v>10</v>
@@ -1288,10 +1300,10 @@
         <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
       <c r="C9" t="s">
         <v>12</v>
@@ -1300,10 +1312,10 @@
         <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="8"/>
       <c r="C10" t="s">
         <v>14</v>
@@ -1312,10 +1324,10 @@
         <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="8"/>
       <c r="C11" t="s">
         <v>16</v>
@@ -1324,10 +1336,10 @@
         <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="8"/>
       <c r="C12" t="s">
         <v>18</v>
@@ -1336,10 +1348,10 @@
         <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="8"/>
       <c r="C13" t="s">
         <v>20</v>
@@ -1348,10 +1360,10 @@
         <v>21</v>
       </c>
       <c r="G13" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
       <c r="C14" t="s">
         <v>77</v>
@@ -1360,10 +1372,10 @@
         <v>78</v>
       </c>
       <c r="G14" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
       <c r="C15" t="s">
         <v>79</v>
@@ -1372,10 +1384,10 @@
         <v>80</v>
       </c>
       <c r="G15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
       <c r="C16" t="s">
         <v>81</v>
@@ -1384,10 +1396,10 @@
         <v>82</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="8"/>
       <c r="C17" t="s">
         <v>83</v>
@@ -1396,10 +1408,10 @@
         <v>84</v>
       </c>
       <c r="G17" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
       <c r="C18" t="s">
         <v>85</v>
@@ -1408,10 +1420,10 @@
         <v>86</v>
       </c>
       <c r="G18" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
       <c r="C19" t="s">
         <v>87</v>
@@ -1420,10 +1432,10 @@
         <v>88</v>
       </c>
       <c r="G19" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
         <v>23</v>
       </c>
@@ -1434,10 +1446,10 @@
         <v>24</v>
       </c>
       <c r="G22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>26</v>
@@ -1446,10 +1458,10 @@
         <v>27</v>
       </c>
       <c r="G23" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="8"/>
       <c r="C24" t="s">
         <v>31</v>
@@ -1458,10 +1470,10 @@
         <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="8"/>
       <c r="C25" t="s">
         <v>33</v>
@@ -1470,10 +1482,10 @@
         <v>34</v>
       </c>
       <c r="G25" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="8"/>
       <c r="C26" t="s">
         <v>35</v>
@@ -1482,10 +1494,10 @@
         <v>36</v>
       </c>
       <c r="G26" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="8"/>
       <c r="C27" t="s">
         <v>37</v>
@@ -1494,10 +1506,10 @@
         <v>39</v>
       </c>
       <c r="G27" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="8"/>
       <c r="C28" t="s">
         <v>38</v>
@@ -1506,10 +1518,10 @@
         <v>40</v>
       </c>
       <c r="G28" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="8"/>
       <c r="C29" t="s">
         <v>41</v>
@@ -1518,10 +1530,10 @@
         <v>42</v>
       </c>
       <c r="G29" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="8"/>
       <c r="C30" t="s">
         <v>43</v>
@@ -1530,10 +1542,10 @@
         <v>44</v>
       </c>
       <c r="G30" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="8"/>
       <c r="C31" t="s">
         <v>45</v>
@@ -1542,10 +1554,10 @@
         <v>49</v>
       </c>
       <c r="G31" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="8"/>
       <c r="C32" t="s">
         <v>46</v>
@@ -1554,10 +1566,10 @@
         <v>50</v>
       </c>
       <c r="G32" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="8"/>
       <c r="C33" t="s">
         <v>47</v>
@@ -1566,10 +1578,10 @@
         <v>51</v>
       </c>
       <c r="G33" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="8"/>
       <c r="C34" t="s">
         <v>48</v>
@@ -1578,10 +1590,10 @@
         <v>52</v>
       </c>
       <c r="G34" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="8"/>
       <c r="C35" t="s">
         <v>54</v>
@@ -1590,10 +1602,10 @@
         <v>55</v>
       </c>
       <c r="G35" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="8"/>
       <c r="C36" t="s">
         <v>56</v>
@@ -1602,10 +1614,10 @@
         <v>57</v>
       </c>
       <c r="G36" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="8"/>
       <c r="C37" t="s">
         <v>72</v>
@@ -1614,10 +1626,10 @@
         <v>89</v>
       </c>
       <c r="G37" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="8"/>
       <c r="C38" t="s">
         <v>73</v>
@@ -1626,10 +1638,10 @@
         <v>90</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="8"/>
       <c r="C39" t="s">
         <v>74</v>
@@ -1638,10 +1650,10 @@
         <v>91</v>
       </c>
       <c r="G39" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="8"/>
       <c r="C40" t="s">
         <v>75</v>
@@ -1650,10 +1662,10 @@
         <v>92</v>
       </c>
       <c r="G40" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="8"/>
       <c r="C41" t="s">
         <v>76</v>
@@ -1662,28 +1674,28 @@
         <v>93</v>
       </c>
       <c r="G41" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="8"/>
       <c r="E42" t="s">
         <v>94</v>
       </c>
       <c r="G42" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="8"/>
       <c r="E43" t="s">
         <v>95</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="8"/>
       <c r="C44" t="s">
         <v>2</v>
@@ -1692,28 +1704,28 @@
         <v>96</v>
       </c>
       <c r="G44" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="8"/>
       <c r="E45" t="s">
         <v>97</v>
       </c>
       <c r="G45" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="8"/>
       <c r="E46" t="s">
         <v>98</v>
       </c>
       <c r="G46" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="8"/>
       <c r="C47" t="s">
         <v>99</v>
@@ -1722,10 +1734,10 @@
         <v>120</v>
       </c>
       <c r="G47" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="8"/>
       <c r="C48" t="s">
         <v>100</v>
@@ -1734,10 +1746,10 @@
         <v>121</v>
       </c>
       <c r="G48" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="8"/>
       <c r="C49" t="s">
         <v>101</v>
@@ -1746,10 +1758,10 @@
         <v>122</v>
       </c>
       <c r="G49" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="8"/>
       <c r="C50" t="s">
         <v>102</v>
@@ -1758,16 +1770,16 @@
         <v>123</v>
       </c>
       <c r="G50" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="8"/>
       <c r="C51" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
         <v>104</v>
       </c>
@@ -1778,10 +1790,10 @@
         <v>106</v>
       </c>
       <c r="G55" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="8"/>
       <c r="C56" t="s">
         <v>107</v>
@@ -1790,10 +1802,10 @@
         <v>108</v>
       </c>
       <c r="G56" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="8"/>
       <c r="C57" t="s">
         <v>109</v>
@@ -1802,10 +1814,10 @@
         <v>110</v>
       </c>
       <c r="G57" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="8"/>
       <c r="C58" t="s">
         <v>111</v>
@@ -1814,10 +1826,10 @@
         <v>112</v>
       </c>
       <c r="G58" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="8"/>
       <c r="C59" t="s">
         <v>115</v>
@@ -1826,10 +1838,10 @@
         <v>114</v>
       </c>
       <c r="G59" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="8"/>
       <c r="C60" t="s">
         <v>113</v>
@@ -1838,10 +1850,10 @@
         <v>2</v>
       </c>
       <c r="G60" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
         <v>116</v>
       </c>
@@ -1852,10 +1864,10 @@
         <v>2</v>
       </c>
       <c r="G63" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="8"/>
       <c r="C64" t="s">
         <v>118</v>
@@ -1864,10 +1876,10 @@
         <v>2</v>
       </c>
       <c r="G64" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="8"/>
       <c r="C65" t="s">
         <v>119</v>
@@ -1876,10 +1888,10 @@
         <v>2</v>
       </c>
       <c r="G65" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
         <v>29</v>
       </c>
@@ -1890,10 +1902,10 @@
         <v>30</v>
       </c>
       <c r="G68" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" s="8"/>
       <c r="C69" t="s">
         <v>58</v>
@@ -1902,10 +1914,10 @@
         <v>59</v>
       </c>
       <c r="G69" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" s="8"/>
       <c r="C70" t="s">
         <v>60</v>
@@ -1914,10 +1926,10 @@
         <v>61</v>
       </c>
       <c r="G70" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" s="8"/>
       <c r="C71" t="s">
         <v>63</v>
@@ -1926,10 +1938,10 @@
         <v>62</v>
       </c>
       <c r="G71" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" s="8"/>
       <c r="C72" t="s">
         <v>64</v>
@@ -1938,10 +1950,10 @@
         <v>65</v>
       </c>
       <c r="G72" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" s="8"/>
       <c r="C73" t="s">
         <v>66</v>
@@ -1950,10 +1962,10 @@
         <v>67</v>
       </c>
       <c r="G73" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74" s="8"/>
       <c r="C74" t="s">
         <v>68</v>
@@ -1962,10 +1974,10 @@
         <v>70</v>
       </c>
       <c r="G74" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75" s="8"/>
       <c r="C75" t="s">
         <v>69</v>
@@ -1974,60 +1986,60 @@
         <v>71</v>
       </c>
       <c r="G75" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" s="8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C78" t="s">
         <v>53</v>
       </c>
       <c r="E78" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G78" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" s="8"/>
       <c r="C79" t="s">
         <v>2</v>
       </c>
       <c r="E79" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G79" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80" s="8"/>
       <c r="C80" t="s">
         <v>2</v>
       </c>
       <c r="E80" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G80" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" s="8"/>
       <c r="C81" t="s">
         <v>2</v>
       </c>
       <c r="E81" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G81" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="83" spans="2:7" ht="21" x14ac:dyDescent="0.4">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" ht="21" x14ac:dyDescent="0.35">
       <c r="B83" s="4" t="s">
         <v>128</v>
       </c>
@@ -2038,10 +2050,10 @@
         <v>129</v>
       </c>
       <c r="G83" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="86" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
         <v>127</v>
       </c>
@@ -2052,34 +2064,34 @@
         <v>144</v>
       </c>
       <c r="G86" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="87" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="8"/>
       <c r="C87" t="s">
         <v>132</v>
       </c>
       <c r="E87" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G87" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="88" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="8"/>
       <c r="C88" t="s">
         <v>139</v>
       </c>
       <c r="E88" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G88" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="89" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="8"/>
       <c r="C89" t="s">
         <v>140</v>
@@ -2088,34 +2100,34 @@
         <v>142</v>
       </c>
       <c r="G89" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="90" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="8"/>
       <c r="C90" t="s">
         <v>125</v>
       </c>
       <c r="E90" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G90" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="91" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="8"/>
       <c r="C91" t="s">
         <v>149</v>
       </c>
       <c r="E91" t="s">
-        <v>150</v>
+        <v>256</v>
       </c>
       <c r="G91" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="92" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="8"/>
       <c r="C92" t="s">
         <v>2</v>
@@ -2124,10 +2136,10 @@
         <v>138</v>
       </c>
       <c r="G92" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="93" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="8"/>
       <c r="C93" t="s">
         <v>2</v>
@@ -2136,10 +2148,10 @@
         <v>148</v>
       </c>
       <c r="G93" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="94" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="8"/>
       <c r="C94" t="s">
         <v>2</v>
@@ -2148,10 +2160,10 @@
         <v>145</v>
       </c>
       <c r="G94" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="95" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="8"/>
       <c r="C95" t="s">
         <v>2</v>
@@ -2160,10 +2172,10 @@
         <v>146</v>
       </c>
       <c r="G95" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="96" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="8"/>
       <c r="C96" t="s">
         <v>2</v>
@@ -2172,46 +2184,46 @@
         <v>147</v>
       </c>
       <c r="G96" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="97" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="8"/>
       <c r="C97" t="s">
         <v>2</v>
       </c>
       <c r="E97" t="s">
-        <v>151</v>
+        <v>259</v>
       </c>
       <c r="G97" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="98" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="8"/>
       <c r="C98" t="s">
         <v>2</v>
       </c>
       <c r="E98" t="s">
-        <v>152</v>
+        <v>257</v>
       </c>
       <c r="G98" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="99" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="8"/>
       <c r="C99" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E99" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G99" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="8"/>
       <c r="C100" t="s">
         <v>130</v>
@@ -2220,360 +2232,384 @@
         <v>2</v>
       </c>
       <c r="G100" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="8"/>
+      <c r="C101" t="s">
+        <v>133</v>
+      </c>
+      <c r="E101" t="s">
+        <v>252</v>
+      </c>
+      <c r="G101" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="8"/>
+      <c r="C102" t="s">
+        <v>134</v>
+      </c>
+      <c r="E102" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="101" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B101" s="2"/>
-    </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B102" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="E102" t="s">
-        <v>246</v>
-      </c>
       <c r="G102" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="103" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="10"/>
-      <c r="C103" t="s">
-        <v>216</v>
-      </c>
-      <c r="E103" t="s">
-        <v>224</v>
-      </c>
-      <c r="G103" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="104" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="10"/>
-      <c r="C104" t="s">
-        <v>217</v>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B103" s="2"/>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B104" s="10" t="s">
+        <v>220</v>
       </c>
       <c r="E104" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="G104" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="105" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="10"/>
       <c r="C105" t="s">
+        <v>211</v>
+      </c>
+      <c r="E105" t="s">
+        <v>219</v>
+      </c>
+      <c r="G105" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="10"/>
+      <c r="C106" t="s">
+        <v>212</v>
+      </c>
+      <c r="E106" t="s">
         <v>218</v>
       </c>
-      <c r="E105" t="s">
+      <c r="G106" t="s">
         <v>222</v>
       </c>
-      <c r="G105" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="106" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="10"/>
-      <c r="E106" t="s">
-        <v>221</v>
-      </c>
-      <c r="G106" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="107" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="10"/>
+      <c r="C107" t="s">
+        <v>213</v>
+      </c>
       <c r="E107" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G107" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="108" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="10"/>
       <c r="E108" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="G108" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="109" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="10"/>
       <c r="E109" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G109" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="110" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="10"/>
       <c r="E110" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="G110" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="111" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="10"/>
       <c r="E111" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
       <c r="G111" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="114" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="10"/>
+      <c r="E112" t="s">
+        <v>221</v>
+      </c>
+      <c r="G112" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="10"/>
+      <c r="E113" t="s">
+        <v>239</v>
+      </c>
+      <c r="G113" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C116" t="s">
         <v>135</v>
       </c>
-      <c r="E114" t="s">
-        <v>2</v>
-      </c>
-      <c r="G114" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="115" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="8"/>
-      <c r="C115" t="s">
-        <v>124</v>
-      </c>
-      <c r="E115" t="s">
-        <v>2</v>
-      </c>
-      <c r="G115" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="116" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="8"/>
-      <c r="C116" t="s">
-        <v>126</v>
-      </c>
       <c r="E116" t="s">
         <v>2</v>
       </c>
       <c r="G116" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="117" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="8"/>
       <c r="C117" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E117" t="s">
         <v>2</v>
       </c>
       <c r="G117" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="118" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="8"/>
       <c r="C118" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E118" t="s">
         <v>2</v>
       </c>
       <c r="G118" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="119" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="8"/>
       <c r="C119" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E119" t="s">
         <v>2</v>
       </c>
       <c r="G119" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="120" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="8"/>
       <c r="C120" t="s">
+        <v>134</v>
+      </c>
+      <c r="E120" t="s">
+        <v>2</v>
+      </c>
+      <c r="G120" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="8"/>
+      <c r="C121" t="s">
+        <v>137</v>
+      </c>
+      <c r="E121" t="s">
+        <v>2</v>
+      </c>
+      <c r="G121" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="8"/>
+      <c r="C122" t="s">
         <v>130</v>
       </c>
-      <c r="E120" t="s">
-        <v>2</v>
-      </c>
-      <c r="G120" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="121" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="3"/>
-    </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B123" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C123" t="s">
-        <v>2</v>
-      </c>
-      <c r="E123" t="s">
-        <v>153</v>
-      </c>
-      <c r="G123" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B124" s="10"/>
-      <c r="C124" t="s">
-        <v>2</v>
-      </c>
-      <c r="E124" t="s">
+      <c r="E122" t="s">
+        <v>2</v>
+      </c>
+      <c r="G122" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="3"/>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B125" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="G124" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B125" s="10"/>
       <c r="C125" t="s">
         <v>2</v>
       </c>
       <c r="E125" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G125" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B126" s="10"/>
       <c r="C126" t="s">
         <v>2</v>
       </c>
       <c r="E126" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G126" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B127" s="10"/>
       <c r="C127" t="s">
         <v>2</v>
       </c>
       <c r="E127" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="G127" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B128" s="10"/>
       <c r="C128" t="s">
         <v>2</v>
       </c>
       <c r="E128" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G128" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B129" s="10"/>
       <c r="C129" t="s">
         <v>2</v>
       </c>
       <c r="E129" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G129" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B130" s="10"/>
       <c r="C130" t="s">
         <v>2</v>
       </c>
       <c r="E130" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G130" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B133" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="E133" t="s">
-        <v>231</v>
-      </c>
-      <c r="G133" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B134" s="8"/>
-      <c r="E134" t="s">
-        <v>233</v>
-      </c>
-      <c r="G134" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B135" s="8"/>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B131" s="10"/>
+      <c r="C131" t="s">
+        <v>2</v>
+      </c>
+      <c r="E131" t="s">
+        <v>157</v>
+      </c>
+      <c r="G131" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B132" s="10"/>
+      <c r="C132" t="s">
+        <v>2</v>
+      </c>
+      <c r="E132" t="s">
+        <v>158</v>
+      </c>
+      <c r="G132" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B135" s="8" t="s">
+        <v>225</v>
+      </c>
       <c r="E135" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="G135" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B136" s="8"/>
       <c r="E136" t="s">
+        <v>228</v>
+      </c>
+      <c r="G136" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B137" s="8"/>
+      <c r="E137" t="s">
+        <v>230</v>
+      </c>
+      <c r="G137" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B138" s="8"/>
+      <c r="E138" t="s">
+        <v>231</v>
+      </c>
+      <c r="G138" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E139" t="s">
+        <v>235</v>
+      </c>
+      <c r="G139" t="s">
         <v>236</v>
-      </c>
-      <c r="G136" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E137" t="s">
-        <v>240</v>
-      </c>
-      <c r="G137" t="s">
-        <v>241</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B133:B136"/>
+    <mergeCell ref="B135:B138"/>
     <mergeCell ref="C2:G2"/>
-    <mergeCell ref="B123:B130"/>
+    <mergeCell ref="B125:B132"/>
     <mergeCell ref="B78:B81"/>
-    <mergeCell ref="B114:B120"/>
+    <mergeCell ref="B116:B122"/>
     <mergeCell ref="B22:B51"/>
     <mergeCell ref="B4:B19"/>
     <mergeCell ref="B55:B60"/>
     <mergeCell ref="B63:B65"/>
     <mergeCell ref="B68:B75"/>
-    <mergeCell ref="B102:B111"/>
-    <mergeCell ref="B86:B100"/>
+    <mergeCell ref="B104:B113"/>
+    <mergeCell ref="B86:B102"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2586,7 +2622,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2598,7 +2634,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/addons/GearSwap/beta_examples_and_information/Variable Remapping.xlsx
+++ b/addons/GearSwap/beta_examples_and_information/Variable Remapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="22980" windowHeight="9525"/>
+    <workbookView xWindow="0" yWindow="72" windowWidth="22980" windowHeight="9528"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -781,9 +781,6 @@
     <t>Changespell was mostly useful for things like trigger spells, which are no longer necessary. You can do the same thing using cancel_spell() and send_command().</t>
   </si>
   <si>
-    <t>Stores the number of a given buff that is active. Keys are lower case buff names, so buffactive['light arts'] would be nil or 1 depending whether or not you have light arts up.</t>
-  </si>
-  <si>
     <t>Pulled from the player array. Uses "MON" as the code for monipulator. Value determines which Lua file is loaded.</t>
   </si>
   <si>
@@ -812,6 +809,9 @@
   </si>
   <si>
     <t>Allows users to register events in Lua that will be called by LuaCore directly. See the doku wiki for more details about options here. I'd call this "Super Advanced Mode."</t>
+  </si>
+  <si>
+    <t>Stores the number of a given buff that is active. Keys are the buff names (case insensitive), so buffactive['light arts'] would be nil or 1 depending whether or not you have light arts up.</t>
   </si>
 </sst>
 </file>
@@ -1205,21 +1205,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="G86" sqref="G86"/>
+    <sheetView tabSelected="1" topLeftCell="C73" workbookViewId="0">
+      <selection activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="124.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="124.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="25.9" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:7" ht="25.95" x14ac:dyDescent="0.5">
       <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C2" s="9" t="s">
         <v>143</v>
       </c>
@@ -1241,7 +1241,7 @@
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>22</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="8"/>
       <c r="C5" t="s">
         <v>4</v>
@@ -1267,7 +1267,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" t="s">
         <v>6</v>
@@ -1279,7 +1279,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="8"/>
       <c r="C7" t="s">
         <v>8</v>
@@ -1291,7 +1291,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="8"/>
       <c r="C8" t="s">
         <v>10</v>
@@ -1303,7 +1303,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="8"/>
       <c r="C9" t="s">
         <v>12</v>
@@ -1315,7 +1315,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="8"/>
       <c r="C10" t="s">
         <v>14</v>
@@ -1327,7 +1327,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="8"/>
       <c r="C11" t="s">
         <v>16</v>
@@ -1339,7 +1339,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="8"/>
       <c r="C12" t="s">
         <v>18</v>
@@ -1351,7 +1351,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="8"/>
       <c r="C13" t="s">
         <v>20</v>
@@ -1363,7 +1363,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="8"/>
       <c r="C14" t="s">
         <v>77</v>
@@ -1375,7 +1375,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="8"/>
       <c r="C15" t="s">
         <v>79</v>
@@ -1387,7 +1387,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="8"/>
       <c r="C16" t="s">
         <v>81</v>
@@ -1399,7 +1399,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="8"/>
       <c r="C17" t="s">
         <v>83</v>
@@ -1411,7 +1411,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="8"/>
       <c r="C18" t="s">
         <v>85</v>
@@ -1423,7 +1423,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="8"/>
       <c r="C19" t="s">
         <v>87</v>
@@ -1435,7 +1435,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>23</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>26</v>
@@ -1461,7 +1461,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="8"/>
       <c r="C24" t="s">
         <v>31</v>
@@ -1473,7 +1473,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="8"/>
       <c r="C25" t="s">
         <v>33</v>
@@ -1485,7 +1485,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="8"/>
       <c r="C26" t="s">
         <v>35</v>
@@ -1497,7 +1497,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="8"/>
       <c r="C27" t="s">
         <v>37</v>
@@ -1509,7 +1509,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="8"/>
       <c r="C28" t="s">
         <v>38</v>
@@ -1521,7 +1521,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="8"/>
       <c r="C29" t="s">
         <v>41</v>
@@ -1533,7 +1533,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="8"/>
       <c r="C30" t="s">
         <v>43</v>
@@ -1545,7 +1545,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="8"/>
       <c r="C31" t="s">
         <v>45</v>
@@ -1554,10 +1554,10 @@
         <v>49</v>
       </c>
       <c r="G31" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="8"/>
       <c r="C32" t="s">
         <v>46</v>
@@ -1569,7 +1569,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="8"/>
       <c r="C33" t="s">
         <v>47</v>
@@ -1581,7 +1581,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="8"/>
       <c r="C34" t="s">
         <v>48</v>
@@ -1593,7 +1593,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="8"/>
       <c r="C35" t="s">
         <v>54</v>
@@ -1605,7 +1605,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="8"/>
       <c r="C36" t="s">
         <v>56</v>
@@ -1617,7 +1617,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="8"/>
       <c r="C37" t="s">
         <v>72</v>
@@ -1629,7 +1629,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="8"/>
       <c r="C38" t="s">
         <v>73</v>
@@ -1641,7 +1641,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="8"/>
       <c r="C39" t="s">
         <v>74</v>
@@ -1653,7 +1653,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="8"/>
       <c r="C40" t="s">
         <v>75</v>
@@ -1665,7 +1665,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="8"/>
       <c r="C41" t="s">
         <v>76</v>
@@ -1677,7 +1677,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="8"/>
       <c r="E42" t="s">
         <v>94</v>
@@ -1686,7 +1686,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="8"/>
       <c r="E43" t="s">
         <v>95</v>
@@ -1695,7 +1695,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="8"/>
       <c r="C44" t="s">
         <v>2</v>
@@ -1707,7 +1707,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="8"/>
       <c r="E45" t="s">
         <v>97</v>
@@ -1716,7 +1716,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" s="8"/>
       <c r="E46" t="s">
         <v>98</v>
@@ -1725,7 +1725,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B47" s="8"/>
       <c r="C47" t="s">
         <v>99</v>
@@ -1737,7 +1737,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B48" s="8"/>
       <c r="C48" t="s">
         <v>100</v>
@@ -1749,7 +1749,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B49" s="8"/>
       <c r="C49" t="s">
         <v>101</v>
@@ -1761,7 +1761,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B50" s="8"/>
       <c r="C50" t="s">
         <v>102</v>
@@ -1773,13 +1773,13 @@
         <v>171</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B51" s="8"/>
       <c r="C51" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>104</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B56" s="8"/>
       <c r="C56" t="s">
         <v>107</v>
@@ -1805,7 +1805,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B57" s="8"/>
       <c r="C57" t="s">
         <v>109</v>
@@ -1817,7 +1817,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B58" s="8"/>
       <c r="C58" t="s">
         <v>111</v>
@@ -1829,7 +1829,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B59" s="8"/>
       <c r="C59" t="s">
         <v>115</v>
@@ -1841,7 +1841,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B60" s="8"/>
       <c r="C60" t="s">
         <v>113</v>
@@ -1853,7 +1853,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>116</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B64" s="8"/>
       <c r="C64" t="s">
         <v>118</v>
@@ -1879,7 +1879,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B65" s="8"/>
       <c r="C65" t="s">
         <v>119</v>
@@ -1891,7 +1891,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>29</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B69" s="8"/>
       <c r="C69" t="s">
         <v>58</v>
@@ -1917,7 +1917,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B70" s="8"/>
       <c r="C70" t="s">
         <v>60</v>
@@ -1929,7 +1929,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B71" s="8"/>
       <c r="C71" t="s">
         <v>63</v>
@@ -1941,7 +1941,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B72" s="8"/>
       <c r="C72" t="s">
         <v>64</v>
@@ -1953,7 +1953,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B73" s="8"/>
       <c r="C73" t="s">
         <v>66</v>
@@ -1965,7 +1965,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B74" s="8"/>
       <c r="C74" t="s">
         <v>68</v>
@@ -1977,7 +1977,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B75" s="8"/>
       <c r="C75" t="s">
         <v>69</v>
@@ -1989,7 +1989,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>178</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B79" s="8"/>
       <c r="C79" t="s">
         <v>2</v>
@@ -2015,7 +2015,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B80" s="8"/>
       <c r="C80" t="s">
         <v>2</v>
@@ -2027,7 +2027,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B81" s="8"/>
       <c r="C81" t="s">
         <v>2</v>
@@ -2050,10 +2050,10 @@
         <v>129</v>
       </c>
       <c r="G83" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="86" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86" s="8" t="s">
         <v>127</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="87" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B87" s="8"/>
       <c r="C87" t="s">
         <v>132</v>
@@ -2079,7 +2079,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="88" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88" s="8"/>
       <c r="C88" t="s">
         <v>139</v>
@@ -2091,7 +2091,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="89" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B89" s="8"/>
       <c r="C89" t="s">
         <v>140</v>
@@ -2103,7 +2103,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="90" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B90" s="8"/>
       <c r="C90" t="s">
         <v>125</v>
@@ -2115,19 +2115,19 @@
         <v>191</v>
       </c>
     </row>
-    <row r="91" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="8"/>
       <c r="C91" t="s">
         <v>149</v>
       </c>
       <c r="E91" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G91" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="92" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B92" s="8"/>
       <c r="C92" t="s">
         <v>2</v>
@@ -2139,7 +2139,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="93" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B93" s="8"/>
       <c r="C93" t="s">
         <v>2</v>
@@ -2151,7 +2151,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="94" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="8"/>
       <c r="C94" t="s">
         <v>2</v>
@@ -2163,7 +2163,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="95" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95" s="8"/>
       <c r="C95" t="s">
         <v>2</v>
@@ -2175,7 +2175,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="96" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B96" s="8"/>
       <c r="C96" t="s">
         <v>2</v>
@@ -2187,31 +2187,31 @@
         <v>196</v>
       </c>
     </row>
-    <row r="97" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B97" s="8"/>
       <c r="C97" t="s">
         <v>2</v>
       </c>
       <c r="E97" t="s">
+        <v>258</v>
+      </c>
+      <c r="G97" t="s">
         <v>259</v>
       </c>
-      <c r="G97" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="98" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="8"/>
       <c r="C98" t="s">
         <v>2</v>
       </c>
       <c r="E98" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G98" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="99" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B99" s="8"/>
       <c r="C99" t="s">
         <v>243</v>
@@ -2223,7 +2223,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="100" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B100" s="8"/>
       <c r="C100" t="s">
         <v>130</v>
@@ -2235,34 +2235,34 @@
         <v>248</v>
       </c>
     </row>
-    <row r="101" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B101" s="8"/>
       <c r="C101" t="s">
         <v>133</v>
       </c>
       <c r="E101" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G101" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="102" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B102" s="8"/>
       <c r="C102" t="s">
         <v>134</v>
       </c>
       <c r="E102" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G102" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B103" s="2"/>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B104" s="10" t="s">
         <v>220</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="105" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B105" s="10"/>
       <c r="C105" t="s">
         <v>211</v>
@@ -2285,7 +2285,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="106" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B106" s="10"/>
       <c r="C106" t="s">
         <v>212</v>
@@ -2297,7 +2297,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="107" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B107" s="10"/>
       <c r="C107" t="s">
         <v>213</v>
@@ -2309,7 +2309,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="108" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B108" s="10"/>
       <c r="E108" t="s">
         <v>216</v>
@@ -2318,7 +2318,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="109" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B109" s="10"/>
       <c r="E109" t="s">
         <v>215</v>
@@ -2327,7 +2327,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="110" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B110" s="10"/>
       <c r="E110" t="s">
         <v>237</v>
@@ -2336,7 +2336,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="111" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B111" s="10"/>
       <c r="E111" t="s">
         <v>214</v>
@@ -2345,7 +2345,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="112" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="10"/>
       <c r="E112" t="s">
         <v>221</v>
@@ -2354,7 +2354,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="113" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B113" s="10"/>
       <c r="E113" t="s">
         <v>239</v>
@@ -2363,7 +2363,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="116" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B116" s="8" t="s">
         <v>136</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="117" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B117" s="8"/>
       <c r="C117" t="s">
         <v>124</v>
@@ -2389,7 +2389,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="118" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B118" s="8"/>
       <c r="C118" t="s">
         <v>126</v>
@@ -2401,7 +2401,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="119" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B119" s="8"/>
       <c r="C119" t="s">
         <v>133</v>
@@ -2413,7 +2413,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="120" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B120" s="8"/>
       <c r="C120" t="s">
         <v>134</v>
@@ -2425,7 +2425,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="121" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B121" s="8"/>
       <c r="C121" t="s">
         <v>137</v>
@@ -2437,7 +2437,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="122" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B122" s="8"/>
       <c r="C122" t="s">
         <v>130</v>
@@ -2449,10 +2449,10 @@
         <v>249</v>
       </c>
     </row>
-    <row r="123" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B123" s="3"/>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B125" s="10" t="s">
         <v>154</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B126" s="10"/>
       <c r="C126" t="s">
         <v>2</v>
@@ -2478,7 +2478,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B127" s="10"/>
       <c r="C127" t="s">
         <v>2</v>
@@ -2490,7 +2490,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B128" s="10"/>
       <c r="C128" t="s">
         <v>2</v>
@@ -2502,7 +2502,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B129" s="10"/>
       <c r="C129" t="s">
         <v>2</v>
@@ -2514,7 +2514,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B130" s="10"/>
       <c r="C130" t="s">
         <v>2</v>
@@ -2526,7 +2526,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B131" s="10"/>
       <c r="C131" t="s">
         <v>2</v>
@@ -2538,7 +2538,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B132" s="10"/>
       <c r="C132" t="s">
         <v>2</v>
@@ -2550,7 +2550,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
         <v>225</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B136" s="8"/>
       <c r="E136" t="s">
         <v>228</v>
@@ -2570,7 +2570,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B137" s="8"/>
       <c r="E137" t="s">
         <v>230</v>
@@ -2579,7 +2579,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B138" s="8"/>
       <c r="E138" t="s">
         <v>231</v>
@@ -2588,7 +2588,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E139" t="s">
         <v>235</v>
       </c>
@@ -2622,7 +2622,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2634,7 +2634,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/addons/GearSwap/beta_examples_and_information/Variable Remapping.xlsx
+++ b/addons/GearSwap/beta_examples_and_information/Variable Remapping.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="264">
   <si>
     <t>Old Variable Name</t>
   </si>
@@ -812,6 +812,15 @@
   </si>
   <si>
     <t>Stores the number of a given buff that is active. Keys are the buff names (case insensitive), so buffactive['light arts'] would be nil or 1 depending whether or not you have light arts up.</t>
+  </si>
+  <si>
+    <t>exportgear</t>
+  </si>
+  <si>
+    <t>//gs export &lt;options&gt;</t>
+  </si>
+  <si>
+    <t>Exports your currently equipped gear or inventory into gearswap .lua or spellcast .xml format. Takes options "inventory" and "xml." Defaults to currently equipped gear and lua otherwise.</t>
   </si>
 </sst>
 </file>
@@ -1203,10 +1212,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G139"/>
+  <dimension ref="B1:G140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C73" workbookViewId="0">
-      <selection activeCell="G83" sqref="G83"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="C140" sqref="C140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2594,6 +2603,17 @@
       </c>
       <c r="G139" t="s">
         <v>236</v>
+      </c>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C140" t="s">
+        <v>261</v>
+      </c>
+      <c r="E140" t="s">
+        <v>262</v>
+      </c>
+      <c r="G140" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/addons/GearSwap/beta_examples_and_information/Variable Remapping.xlsx
+++ b/addons/GearSwap/beta_examples_and_information/Variable Remapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="72" windowWidth="22980" windowHeight="9528"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="22980" windowHeight="9525"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="265">
   <si>
     <t>Old Variable Name</t>
   </si>
@@ -769,12 +769,6 @@
     <t>Combines set1 and set2 and returns the resulting set. In the event of conflicts, set2 is given preference over set1.</t>
   </si>
   <si>
-    <t>require('data/user_file_name.lua')</t>
-  </si>
-  <si>
-    <t>Comparable to Include, but require puts everything into GearSwap with global scope. In order to change variables in your environment, you'll need to put "user_env." in front of them.</t>
-  </si>
-  <si>
     <t>Use cancel_spell() and send_command('new spell').</t>
   </si>
   <si>
@@ -821,6 +815,15 @@
   </si>
   <si>
     <t>Exports your currently equipped gear or inventory into gearswap .lua or spellcast .xml format. Takes options "inventory" and "xml." Defaults to currently equipped gear and lua otherwise.</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>include('file_name')</t>
+  </si>
+  <si>
+    <t>This will run the file at ../gearswap/data/file_name.lua and add all values returned from it in a table to the user environment.</t>
   </si>
 </sst>
 </file>
@@ -1214,21 +1217,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="C140" sqref="C140"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" customWidth="1"/>
-    <col min="5" max="5" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="124.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="124.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="25.95" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:7" ht="25.9" x14ac:dyDescent="0.5">
       <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1241,7 +1244,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C2" s="9" t="s">
         <v>143</v>
       </c>
@@ -1250,7 +1253,7 @@
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>22</v>
       </c>
@@ -1264,7 +1267,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="8"/>
       <c r="C5" t="s">
         <v>4</v>
@@ -1276,7 +1279,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" t="s">
         <v>6</v>
@@ -1288,7 +1291,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="8"/>
       <c r="C7" t="s">
         <v>8</v>
@@ -1300,7 +1303,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="8"/>
       <c r="C8" t="s">
         <v>10</v>
@@ -1312,7 +1315,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
       <c r="C9" t="s">
         <v>12</v>
@@ -1324,7 +1327,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="8"/>
       <c r="C10" t="s">
         <v>14</v>
@@ -1336,7 +1339,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="8"/>
       <c r="C11" t="s">
         <v>16</v>
@@ -1348,7 +1351,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="8"/>
       <c r="C12" t="s">
         <v>18</v>
@@ -1360,7 +1363,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="8"/>
       <c r="C13" t="s">
         <v>20</v>
@@ -1372,7 +1375,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
       <c r="C14" t="s">
         <v>77</v>
@@ -1384,7 +1387,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
       <c r="C15" t="s">
         <v>79</v>
@@ -1396,7 +1399,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
       <c r="C16" t="s">
         <v>81</v>
@@ -1408,7 +1411,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="8"/>
       <c r="C17" t="s">
         <v>83</v>
@@ -1420,7 +1423,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
       <c r="C18" t="s">
         <v>85</v>
@@ -1432,7 +1435,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
       <c r="C19" t="s">
         <v>87</v>
@@ -1444,7 +1447,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
         <v>23</v>
       </c>
@@ -1458,7 +1461,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>26</v>
@@ -1470,7 +1473,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="8"/>
       <c r="C24" t="s">
         <v>31</v>
@@ -1482,7 +1485,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="8"/>
       <c r="C25" t="s">
         <v>33</v>
@@ -1494,7 +1497,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="8"/>
       <c r="C26" t="s">
         <v>35</v>
@@ -1506,7 +1509,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="8"/>
       <c r="C27" t="s">
         <v>37</v>
@@ -1518,7 +1521,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="8"/>
       <c r="C28" t="s">
         <v>38</v>
@@ -1530,7 +1533,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="8"/>
       <c r="C29" t="s">
         <v>41</v>
@@ -1542,7 +1545,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="8"/>
       <c r="C30" t="s">
         <v>43</v>
@@ -1554,7 +1557,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="8"/>
       <c r="C31" t="s">
         <v>45</v>
@@ -1563,10 +1566,10 @@
         <v>49</v>
       </c>
       <c r="G31" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="8"/>
       <c r="C32" t="s">
         <v>46</v>
@@ -1578,7 +1581,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="8"/>
       <c r="C33" t="s">
         <v>47</v>
@@ -1590,7 +1593,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="8"/>
       <c r="C34" t="s">
         <v>48</v>
@@ -1602,7 +1605,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="8"/>
       <c r="C35" t="s">
         <v>54</v>
@@ -1614,7 +1617,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="8"/>
       <c r="C36" t="s">
         <v>56</v>
@@ -1626,7 +1629,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="8"/>
       <c r="C37" t="s">
         <v>72</v>
@@ -1638,7 +1641,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="8"/>
       <c r="C38" t="s">
         <v>73</v>
@@ -1650,7 +1653,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="8"/>
       <c r="C39" t="s">
         <v>74</v>
@@ -1662,7 +1665,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="8"/>
       <c r="C40" t="s">
         <v>75</v>
@@ -1674,7 +1677,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="8"/>
       <c r="C41" t="s">
         <v>76</v>
@@ -1686,7 +1689,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="8"/>
       <c r="E42" t="s">
         <v>94</v>
@@ -1695,7 +1698,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="8"/>
       <c r="E43" t="s">
         <v>95</v>
@@ -1704,7 +1707,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="8"/>
       <c r="C44" t="s">
         <v>2</v>
@@ -1716,7 +1719,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="8"/>
       <c r="E45" t="s">
         <v>97</v>
@@ -1725,7 +1728,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="8"/>
       <c r="E46" t="s">
         <v>98</v>
@@ -1734,7 +1737,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="8"/>
       <c r="C47" t="s">
         <v>99</v>
@@ -1746,7 +1749,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="8"/>
       <c r="C48" t="s">
         <v>100</v>
@@ -1758,7 +1761,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="8"/>
       <c r="C49" t="s">
         <v>101</v>
@@ -1770,7 +1773,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="8"/>
       <c r="C50" t="s">
         <v>102</v>
@@ -1782,13 +1785,13 @@
         <v>171</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="8"/>
       <c r="C51" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
         <v>104</v>
       </c>
@@ -1802,7 +1805,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="8"/>
       <c r="C56" t="s">
         <v>107</v>
@@ -1814,7 +1817,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="8"/>
       <c r="C57" t="s">
         <v>109</v>
@@ -1826,7 +1829,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="8"/>
       <c r="C58" t="s">
         <v>111</v>
@@ -1838,7 +1841,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="8"/>
       <c r="C59" t="s">
         <v>115</v>
@@ -1850,7 +1853,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="8"/>
       <c r="C60" t="s">
         <v>113</v>
@@ -1862,7 +1865,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
         <v>116</v>
       </c>
@@ -1876,7 +1879,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="8"/>
       <c r="C64" t="s">
         <v>118</v>
@@ -1888,7 +1891,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="8"/>
       <c r="C65" t="s">
         <v>119</v>
@@ -1900,7 +1903,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
         <v>29</v>
       </c>
@@ -1914,7 +1917,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" s="8"/>
       <c r="C69" t="s">
         <v>58</v>
@@ -1926,7 +1929,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" s="8"/>
       <c r="C70" t="s">
         <v>60</v>
@@ -1938,7 +1941,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" s="8"/>
       <c r="C71" t="s">
         <v>63</v>
@@ -1950,7 +1953,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" s="8"/>
       <c r="C72" t="s">
         <v>64</v>
@@ -1962,7 +1965,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" s="8"/>
       <c r="C73" t="s">
         <v>66</v>
@@ -1974,7 +1977,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74" s="8"/>
       <c r="C74" t="s">
         <v>68</v>
@@ -1986,7 +1989,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75" s="8"/>
       <c r="C75" t="s">
         <v>69</v>
@@ -1998,7 +2001,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" s="8" t="s">
         <v>178</v>
       </c>
@@ -2012,7 +2015,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" s="8"/>
       <c r="C79" t="s">
         <v>2</v>
@@ -2024,7 +2027,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80" s="8"/>
       <c r="C80" t="s">
         <v>2</v>
@@ -2036,7 +2039,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" s="8"/>
       <c r="C81" t="s">
         <v>2</v>
@@ -2059,10 +2062,10 @@
         <v>129</v>
       </c>
       <c r="G83" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="86" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
         <v>127</v>
       </c>
@@ -2076,7 +2079,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="87" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="8"/>
       <c r="C87" t="s">
         <v>132</v>
@@ -2088,19 +2091,22 @@
         <v>188</v>
       </c>
     </row>
-    <row r="88" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="8"/>
       <c r="C88" t="s">
         <v>139</v>
       </c>
+      <c r="D88" s="5" t="s">
+        <v>262</v>
+      </c>
       <c r="E88" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="G88" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="89" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="8"/>
       <c r="C89" t="s">
         <v>140</v>
@@ -2112,7 +2118,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="90" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="8"/>
       <c r="C90" t="s">
         <v>125</v>
@@ -2124,19 +2130,19 @@
         <v>191</v>
       </c>
     </row>
-    <row r="91" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="8"/>
       <c r="C91" t="s">
         <v>149</v>
       </c>
       <c r="E91" t="s">
+        <v>253</v>
+      </c>
+      <c r="G91" t="s">
         <v>255</v>
       </c>
-      <c r="G91" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="92" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="8"/>
       <c r="C92" t="s">
         <v>2</v>
@@ -2148,7 +2154,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="93" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="8"/>
       <c r="C93" t="s">
         <v>2</v>
@@ -2160,7 +2166,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="94" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="8"/>
       <c r="C94" t="s">
         <v>2</v>
@@ -2172,7 +2178,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="95" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="8"/>
       <c r="C95" t="s">
         <v>2</v>
@@ -2184,7 +2190,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="96" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="8"/>
       <c r="C96" t="s">
         <v>2</v>
@@ -2196,31 +2202,31 @@
         <v>196</v>
       </c>
     </row>
-    <row r="97" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="8"/>
       <c r="C97" t="s">
         <v>2</v>
       </c>
       <c r="E97" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G97" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="98" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="8"/>
       <c r="C98" t="s">
         <v>2</v>
       </c>
       <c r="E98" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G98" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="99" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="8"/>
       <c r="C99" t="s">
         <v>243</v>
@@ -2232,7 +2238,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="100" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="8"/>
       <c r="C100" t="s">
         <v>130</v>
@@ -2241,37 +2247,37 @@
         <v>2</v>
       </c>
       <c r="G100" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="101" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="8"/>
       <c r="C101" t="s">
         <v>133</v>
       </c>
       <c r="E101" t="s">
+        <v>249</v>
+      </c>
+      <c r="G101" t="s">
         <v>251</v>
       </c>
-      <c r="G101" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="102" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="8"/>
       <c r="C102" t="s">
         <v>134</v>
       </c>
       <c r="E102" t="s">
+        <v>250</v>
+      </c>
+      <c r="G102" t="s">
         <v>252</v>
       </c>
-      <c r="G102" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B103" s="2"/>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B104" s="10" t="s">
         <v>220</v>
       </c>
@@ -2282,7 +2288,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="105" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="10"/>
       <c r="C105" t="s">
         <v>211</v>
@@ -2294,7 +2300,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="106" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="10"/>
       <c r="C106" t="s">
         <v>212</v>
@@ -2306,7 +2312,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="107" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="10"/>
       <c r="C107" t="s">
         <v>213</v>
@@ -2318,7 +2324,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="108" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="10"/>
       <c r="E108" t="s">
         <v>216</v>
@@ -2327,7 +2333,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="109" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="10"/>
       <c r="E109" t="s">
         <v>215</v>
@@ -2336,7 +2342,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="110" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="10"/>
       <c r="E110" t="s">
         <v>237</v>
@@ -2345,7 +2351,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="111" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="10"/>
       <c r="E111" t="s">
         <v>214</v>
@@ -2354,7 +2360,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="112" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="10"/>
       <c r="E112" t="s">
         <v>221</v>
@@ -2363,7 +2369,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="113" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="10"/>
       <c r="E113" t="s">
         <v>239</v>
@@ -2372,7 +2378,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="116" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="8" t="s">
         <v>136</v>
       </c>
@@ -2386,7 +2392,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="117" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="8"/>
       <c r="C117" t="s">
         <v>124</v>
@@ -2398,7 +2404,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="118" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="8"/>
       <c r="C118" t="s">
         <v>126</v>
@@ -2410,7 +2416,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="119" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="8"/>
       <c r="C119" t="s">
         <v>133</v>
@@ -2422,7 +2428,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="120" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="8"/>
       <c r="C120" t="s">
         <v>134</v>
@@ -2434,7 +2440,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="121" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="8"/>
       <c r="C121" t="s">
         <v>137</v>
@@ -2446,7 +2452,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="122" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="8"/>
       <c r="C122" t="s">
         <v>130</v>
@@ -2455,13 +2461,13 @@
         <v>2</v>
       </c>
       <c r="G122" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="123" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B123" s="3"/>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B125" s="10" t="s">
         <v>154</v>
       </c>
@@ -2475,7 +2481,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B126" s="10"/>
       <c r="C126" t="s">
         <v>2</v>
@@ -2487,7 +2493,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B127" s="10"/>
       <c r="C127" t="s">
         <v>2</v>
@@ -2499,7 +2505,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B128" s="10"/>
       <c r="C128" t="s">
         <v>2</v>
@@ -2511,7 +2517,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B129" s="10"/>
       <c r="C129" t="s">
         <v>2</v>
@@ -2523,7 +2529,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B130" s="10"/>
       <c r="C130" t="s">
         <v>2</v>
@@ -2535,7 +2541,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B131" s="10"/>
       <c r="C131" t="s">
         <v>2</v>
@@ -2547,7 +2553,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B132" s="10"/>
       <c r="C132" t="s">
         <v>2</v>
@@ -2559,7 +2565,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B135" s="8" t="s">
         <v>225</v>
       </c>
@@ -2570,7 +2576,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B136" s="8"/>
       <c r="E136" t="s">
         <v>228</v>
@@ -2579,7 +2585,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B137" s="8"/>
       <c r="E137" t="s">
         <v>230</v>
@@ -2588,7 +2594,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B138" s="8"/>
       <c r="E138" t="s">
         <v>231</v>
@@ -2597,7 +2603,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E139" t="s">
         <v>235</v>
       </c>
@@ -2605,15 +2611,15 @@
         <v>236</v>
       </c>
     </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C140" t="s">
+        <v>259</v>
+      </c>
+      <c r="E140" t="s">
+        <v>260</v>
+      </c>
+      <c r="G140" t="s">
         <v>261</v>
-      </c>
-      <c r="E140" t="s">
-        <v>262</v>
-      </c>
-      <c r="G140" t="s">
-        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -2642,7 +2648,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2654,7 +2660,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/addons/GearSwap/beta_examples_and_information/Variable Remapping.xlsx
+++ b/addons/GearSwap/beta_examples_and_information/Variable Remapping.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="269">
   <si>
     <t>Old Variable Name</t>
   </si>
@@ -824,6 +824,18 @@
   </si>
   <si>
     <t>This will run the file at ../gearswap/data/file_name.lua and add all values returned from it in a table to the user environment.</t>
+  </si>
+  <si>
+    <t>//gs disable &lt;optional slot&gt;</t>
+  </si>
+  <si>
+    <t>//gs enable &lt;optional slot&gt;</t>
+  </si>
+  <si>
+    <t>Disables equip commands targeting a given slot. "All" will prevent all equip commands. Providing no second argument will disable user gearswap file execution, although registered events will still run.</t>
+  </si>
+  <si>
+    <t>Enables equip commands targeting a given slot. "All" will allow all equip commands. Providing no second argument will enable user gearswap file execution, although registered events will still run.</t>
   </si>
 </sst>
 </file>
@@ -1215,10 +1227,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G140"/>
+  <dimension ref="B1:G142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="G89" sqref="G89"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="C142" sqref="C142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2565,7 +2577,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="8" t="s">
         <v>225</v>
       </c>
@@ -2576,7 +2588,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="8"/>
       <c r="E136" t="s">
         <v>228</v>
@@ -2585,7 +2597,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="8"/>
       <c r="E137" t="s">
         <v>230</v>
@@ -2594,7 +2606,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="8"/>
       <c r="E138" t="s">
         <v>231</v>
@@ -2603,7 +2615,8 @@
         <v>232</v>
       </c>
     </row>
-    <row r="139" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="8"/>
       <c r="E139" t="s">
         <v>235</v>
       </c>
@@ -2611,7 +2624,8 @@
         <v>236</v>
       </c>
     </row>
-    <row r="140" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="8"/>
       <c r="C140" t="s">
         <v>259</v>
       </c>
@@ -2622,9 +2636,26 @@
         <v>261</v>
       </c>
     </row>
+    <row r="141" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="8"/>
+      <c r="E141" t="s">
+        <v>266</v>
+      </c>
+      <c r="G141" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B142" s="8"/>
+      <c r="E142" t="s">
+        <v>265</v>
+      </c>
+      <c r="G142" t="s">
+        <v>267</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B135:B138"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="B125:B132"/>
     <mergeCell ref="B78:B81"/>
@@ -2636,6 +2667,7 @@
     <mergeCell ref="B68:B75"/>
     <mergeCell ref="B104:B113"/>
     <mergeCell ref="B86:B102"/>
+    <mergeCell ref="B135:B142"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/addons/GearSwap/beta_examples_and_information/Variable Remapping.xlsx
+++ b/addons/GearSwap/beta_examples_and_information/Variable Remapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="22980" windowHeight="9525"/>
+    <workbookView xWindow="0" yWindow="72" windowWidth="22980" windowHeight="9528"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -814,9 +814,6 @@
     <t>//gs export &lt;options&gt;</t>
   </si>
   <si>
-    <t>Exports your currently equipped gear or inventory into gearswap .lua or spellcast .xml format. Takes options "inventory" and "xml." Defaults to currently equipped gear and lua otherwise.</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -836,6 +833,9 @@
   </si>
   <si>
     <t>Enables equip commands targeting a given slot. "All" will allow all equip commands. Providing no second argument will enable user gearswap file execution, although registered events will still run.</t>
+  </si>
+  <si>
+    <t>Exports your currently equipped gear, inventory, or all the items in your current Lua files' sets into gearswap .lua or spellcast .xml format. Takes options "inventory", "sets", and "xml." Defaults to currently equipped gear and lua otherwise.</t>
   </si>
 </sst>
 </file>
@@ -917,14 +917,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1229,21 +1229,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="C142" sqref="C142"/>
+    <sheetView tabSelected="1" topLeftCell="D124" workbookViewId="0">
+      <selection activeCell="F150" sqref="F150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="124.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="124.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="25.9" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:7" ht="25.95" x14ac:dyDescent="0.5">
       <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1256,17 +1256,17 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="C2" s="9" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C2" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C4" t="s">
@@ -1279,8 +1279,8 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="8"/>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="10"/>
       <c r="C5" t="s">
         <v>4</v>
       </c>
@@ -1291,8 +1291,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="10"/>
       <c r="C6" t="s">
         <v>6</v>
       </c>
@@ -1303,8 +1303,8 @@
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="10"/>
       <c r="C7" t="s">
         <v>8</v>
       </c>
@@ -1315,8 +1315,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="8"/>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="10"/>
       <c r="C8" t="s">
         <v>10</v>
       </c>
@@ -1327,8 +1327,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="8"/>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="10"/>
       <c r="C9" t="s">
         <v>12</v>
       </c>
@@ -1339,8 +1339,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="8"/>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="10"/>
       <c r="C10" t="s">
         <v>14</v>
       </c>
@@ -1351,8 +1351,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="8"/>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="10"/>
       <c r="C11" t="s">
         <v>16</v>
       </c>
@@ -1363,8 +1363,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="8"/>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="10"/>
       <c r="C12" t="s">
         <v>18</v>
       </c>
@@ -1375,8 +1375,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="8"/>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="10"/>
       <c r="C13" t="s">
         <v>20</v>
       </c>
@@ -1387,8 +1387,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="8"/>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="10"/>
       <c r="C14" t="s">
         <v>77</v>
       </c>
@@ -1399,8 +1399,8 @@
         <v>163</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="8"/>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="10"/>
       <c r="C15" t="s">
         <v>79</v>
       </c>
@@ -1411,8 +1411,8 @@
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="8"/>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="10"/>
       <c r="C16" t="s">
         <v>81</v>
       </c>
@@ -1423,8 +1423,8 @@
         <v>234</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="8"/>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="10"/>
       <c r="C17" t="s">
         <v>83</v>
       </c>
@@ -1435,8 +1435,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="8"/>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="10"/>
       <c r="C18" t="s">
         <v>85</v>
       </c>
@@ -1447,8 +1447,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="8"/>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="10"/>
       <c r="C19" t="s">
         <v>87</v>
       </c>
@@ -1459,8 +1459,8 @@
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="8" t="s">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C22" t="s">
@@ -1473,8 +1473,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="8"/>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="10"/>
       <c r="C23" t="s">
         <v>26</v>
       </c>
@@ -1485,8 +1485,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="8"/>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="10"/>
       <c r="C24" t="s">
         <v>31</v>
       </c>
@@ -1497,8 +1497,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="8"/>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>33</v>
       </c>
@@ -1509,8 +1509,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="8"/>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="10"/>
       <c r="C26" t="s">
         <v>35</v>
       </c>
@@ -1521,8 +1521,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="8"/>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="10"/>
       <c r="C27" t="s">
         <v>37</v>
       </c>
@@ -1533,8 +1533,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="8"/>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="10"/>
       <c r="C28" t="s">
         <v>38</v>
       </c>
@@ -1545,8 +1545,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="8"/>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="10"/>
       <c r="C29" t="s">
         <v>41</v>
       </c>
@@ -1557,8 +1557,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="8"/>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="10"/>
       <c r="C30" t="s">
         <v>43</v>
       </c>
@@ -1569,8 +1569,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="8"/>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="10"/>
       <c r="C31" t="s">
         <v>45</v>
       </c>
@@ -1581,8 +1581,8 @@
         <v>248</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="8"/>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="10"/>
       <c r="C32" t="s">
         <v>46</v>
       </c>
@@ -1593,8 +1593,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="8"/>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33" s="10"/>
       <c r="C33" t="s">
         <v>47</v>
       </c>
@@ -1605,8 +1605,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="8"/>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B34" s="10"/>
       <c r="C34" t="s">
         <v>48</v>
       </c>
@@ -1617,8 +1617,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="8"/>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B35" s="10"/>
       <c r="C35" t="s">
         <v>54</v>
       </c>
@@ -1629,8 +1629,8 @@
         <v>167</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="8"/>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36" s="10"/>
       <c r="C36" t="s">
         <v>56</v>
       </c>
@@ -1641,8 +1641,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="8"/>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37" s="10"/>
       <c r="C37" t="s">
         <v>72</v>
       </c>
@@ -1653,8 +1653,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="8"/>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" s="10"/>
       <c r="C38" t="s">
         <v>73</v>
       </c>
@@ -1665,8 +1665,8 @@
         <v>234</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="8"/>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B39" s="10"/>
       <c r="C39" t="s">
         <v>74</v>
       </c>
@@ -1677,8 +1677,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="8"/>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B40" s="10"/>
       <c r="C40" t="s">
         <v>75</v>
       </c>
@@ -1689,8 +1689,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="8"/>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B41" s="10"/>
       <c r="C41" t="s">
         <v>76</v>
       </c>
@@ -1701,8 +1701,8 @@
         <v>170</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="8"/>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B42" s="10"/>
       <c r="E42" t="s">
         <v>94</v>
       </c>
@@ -1710,8 +1710,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="8"/>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B43" s="10"/>
       <c r="E43" t="s">
         <v>95</v>
       </c>
@@ -1719,8 +1719,8 @@
         <v>234</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="8"/>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B44" s="10"/>
       <c r="C44" t="s">
         <v>2</v>
       </c>
@@ -1731,8 +1731,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="8"/>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B45" s="10"/>
       <c r="E45" t="s">
         <v>97</v>
       </c>
@@ -1740,8 +1740,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="8"/>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B46" s="10"/>
       <c r="E46" t="s">
         <v>98</v>
       </c>
@@ -1749,8 +1749,8 @@
         <v>169</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="8"/>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B47" s="10"/>
       <c r="C47" t="s">
         <v>99</v>
       </c>
@@ -1761,8 +1761,8 @@
         <v>171</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="8"/>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B48" s="10"/>
       <c r="C48" t="s">
         <v>100</v>
       </c>
@@ -1773,8 +1773,8 @@
         <v>171</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="8"/>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B49" s="10"/>
       <c r="C49" t="s">
         <v>101</v>
       </c>
@@ -1785,8 +1785,8 @@
         <v>171</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="8"/>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B50" s="10"/>
       <c r="C50" t="s">
         <v>102</v>
       </c>
@@ -1797,14 +1797,14 @@
         <v>171</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="8"/>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B51" s="10"/>
       <c r="C51" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="8" t="s">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B55" s="10" t="s">
         <v>104</v>
       </c>
       <c r="C55" t="s">
@@ -1817,8 +1817,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="8"/>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B56" s="10"/>
       <c r="C56" t="s">
         <v>107</v>
       </c>
@@ -1829,8 +1829,8 @@
         <v>172</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="8"/>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B57" s="10"/>
       <c r="C57" t="s">
         <v>109</v>
       </c>
@@ -1841,8 +1841,8 @@
         <v>174</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="8"/>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B58" s="10"/>
       <c r="C58" t="s">
         <v>111</v>
       </c>
@@ -1853,8 +1853,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="8"/>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B59" s="10"/>
       <c r="C59" t="s">
         <v>115</v>
       </c>
@@ -1865,8 +1865,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="8"/>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B60" s="10"/>
       <c r="C60" t="s">
         <v>113</v>
       </c>
@@ -1877,8 +1877,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B63" s="8" t="s">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B63" s="10" t="s">
         <v>116</v>
       </c>
       <c r="C63" t="s">
@@ -1891,8 +1891,8 @@
         <v>175</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B64" s="8"/>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B64" s="10"/>
       <c r="C64" t="s">
         <v>118</v>
       </c>
@@ -1903,8 +1903,8 @@
         <v>175</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B65" s="8"/>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B65" s="10"/>
       <c r="C65" t="s">
         <v>119</v>
       </c>
@@ -1915,8 +1915,8 @@
         <v>175</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B68" s="8" t="s">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B68" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C68" t="s">
@@ -1929,8 +1929,8 @@
         <v>176</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B69" s="8"/>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B69" s="10"/>
       <c r="C69" t="s">
         <v>58</v>
       </c>
@@ -1941,8 +1941,8 @@
         <v>176</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B70" s="8"/>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B70" s="10"/>
       <c r="C70" t="s">
         <v>60</v>
       </c>
@@ -1953,8 +1953,8 @@
         <v>176</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B71" s="8"/>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B71" s="10"/>
       <c r="C71" t="s">
         <v>63</v>
       </c>
@@ -1965,8 +1965,8 @@
         <v>176</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B72" s="8"/>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B72" s="10"/>
       <c r="C72" t="s">
         <v>64</v>
       </c>
@@ -1977,8 +1977,8 @@
         <v>176</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B73" s="8"/>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B73" s="10"/>
       <c r="C73" t="s">
         <v>66</v>
       </c>
@@ -1989,8 +1989,8 @@
         <v>176</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B74" s="8"/>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B74" s="10"/>
       <c r="C74" t="s">
         <v>68</v>
       </c>
@@ -2001,8 +2001,8 @@
         <v>176</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B75" s="8"/>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B75" s="10"/>
       <c r="C75" t="s">
         <v>69</v>
       </c>
@@ -2013,8 +2013,8 @@
         <v>176</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B78" s="8" t="s">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B78" s="10" t="s">
         <v>178</v>
       </c>
       <c r="C78" t="s">
@@ -2027,8 +2027,8 @@
         <v>181</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B79" s="8"/>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B79" s="10"/>
       <c r="C79" t="s">
         <v>2</v>
       </c>
@@ -2039,8 +2039,8 @@
         <v>180</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B80" s="8"/>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B80" s="10"/>
       <c r="C80" t="s">
         <v>2</v>
       </c>
@@ -2051,8 +2051,8 @@
         <v>184</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B81" s="8"/>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B81" s="10"/>
       <c r="C81" t="s">
         <v>2</v>
       </c>
@@ -2077,8 +2077,8 @@
         <v>258</v>
       </c>
     </row>
-    <row r="86" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="8" t="s">
+    <row r="86" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="10" t="s">
         <v>127</v>
       </c>
       <c r="C86" t="s">
@@ -2091,8 +2091,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="87" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="8"/>
+    <row r="87" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="10"/>
       <c r="C87" t="s">
         <v>132</v>
       </c>
@@ -2103,23 +2103,23 @@
         <v>188</v>
       </c>
     </row>
-    <row r="88" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="8"/>
+    <row r="88" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="10"/>
       <c r="C88" t="s">
         <v>139</v>
       </c>
       <c r="D88" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E88" t="s">
         <v>262</v>
       </c>
-      <c r="E88" t="s">
+      <c r="G88" t="s">
         <v>263</v>
       </c>
-      <c r="G88" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="89" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="8"/>
+    </row>
+    <row r="89" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="10"/>
       <c r="C89" t="s">
         <v>140</v>
       </c>
@@ -2130,8 +2130,8 @@
         <v>190</v>
       </c>
     </row>
-    <row r="90" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="8"/>
+    <row r="90" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="10"/>
       <c r="C90" t="s">
         <v>125</v>
       </c>
@@ -2142,8 +2142,8 @@
         <v>191</v>
       </c>
     </row>
-    <row r="91" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="8"/>
+    <row r="91" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="10"/>
       <c r="C91" t="s">
         <v>149</v>
       </c>
@@ -2154,8 +2154,8 @@
         <v>255</v>
       </c>
     </row>
-    <row r="92" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="8"/>
+    <row r="92" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="10"/>
       <c r="C92" t="s">
         <v>2</v>
       </c>
@@ -2166,8 +2166,8 @@
         <v>192</v>
       </c>
     </row>
-    <row r="93" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="8"/>
+    <row r="93" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="10"/>
       <c r="C93" t="s">
         <v>2</v>
       </c>
@@ -2178,8 +2178,8 @@
         <v>193</v>
       </c>
     </row>
-    <row r="94" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="8"/>
+    <row r="94" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="10"/>
       <c r="C94" t="s">
         <v>2</v>
       </c>
@@ -2190,8 +2190,8 @@
         <v>194</v>
       </c>
     </row>
-    <row r="95" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="8"/>
+    <row r="95" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="10"/>
       <c r="C95" t="s">
         <v>2</v>
       </c>
@@ -2202,8 +2202,8 @@
         <v>195</v>
       </c>
     </row>
-    <row r="96" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="8"/>
+    <row r="96" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="10"/>
       <c r="C96" t="s">
         <v>2</v>
       </c>
@@ -2214,8 +2214,8 @@
         <v>196</v>
       </c>
     </row>
-    <row r="97" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="8"/>
+    <row r="97" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="10"/>
       <c r="C97" t="s">
         <v>2</v>
       </c>
@@ -2226,8 +2226,8 @@
         <v>257</v>
       </c>
     </row>
-    <row r="98" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="8"/>
+    <row r="98" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="10"/>
       <c r="C98" t="s">
         <v>2</v>
       </c>
@@ -2238,8 +2238,8 @@
         <v>197</v>
       </c>
     </row>
-    <row r="99" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="8"/>
+    <row r="99" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="10"/>
       <c r="C99" t="s">
         <v>243</v>
       </c>
@@ -2250,8 +2250,8 @@
         <v>245</v>
       </c>
     </row>
-    <row r="100" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="8"/>
+    <row r="100" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="10"/>
       <c r="C100" t="s">
         <v>130</v>
       </c>
@@ -2262,8 +2262,8 @@
         <v>246</v>
       </c>
     </row>
-    <row r="101" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="8"/>
+    <row r="101" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="10"/>
       <c r="C101" t="s">
         <v>133</v>
       </c>
@@ -2274,8 +2274,8 @@
         <v>251</v>
       </c>
     </row>
-    <row r="102" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="8"/>
+    <row r="102" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="10"/>
       <c r="C102" t="s">
         <v>134</v>
       </c>
@@ -2286,11 +2286,11 @@
         <v>252</v>
       </c>
     </row>
-    <row r="103" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B103" s="2"/>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B104" s="10" t="s">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B104" s="9" t="s">
         <v>220</v>
       </c>
       <c r="E104" t="s">
@@ -2300,8 +2300,8 @@
         <v>242</v>
       </c>
     </row>
-    <row r="105" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="10"/>
+    <row r="105" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="9"/>
       <c r="C105" t="s">
         <v>211</v>
       </c>
@@ -2312,8 +2312,8 @@
         <v>222</v>
       </c>
     </row>
-    <row r="106" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="10"/>
+    <row r="106" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="9"/>
       <c r="C106" t="s">
         <v>212</v>
       </c>
@@ -2324,8 +2324,8 @@
         <v>222</v>
       </c>
     </row>
-    <row r="107" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="10"/>
+    <row r="107" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="9"/>
       <c r="C107" t="s">
         <v>213</v>
       </c>
@@ -2336,8 +2336,8 @@
         <v>222</v>
       </c>
     </row>
-    <row r="108" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="10"/>
+    <row r="108" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="9"/>
       <c r="E108" t="s">
         <v>216</v>
       </c>
@@ -2345,8 +2345,8 @@
         <v>222</v>
       </c>
     </row>
-    <row r="109" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="10"/>
+    <row r="109" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="9"/>
       <c r="E109" t="s">
         <v>215</v>
       </c>
@@ -2354,8 +2354,8 @@
         <v>222</v>
       </c>
     </row>
-    <row r="110" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="10"/>
+    <row r="110" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="9"/>
       <c r="E110" t="s">
         <v>237</v>
       </c>
@@ -2363,8 +2363,8 @@
         <v>238</v>
       </c>
     </row>
-    <row r="111" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="10"/>
+    <row r="111" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="9"/>
       <c r="E111" t="s">
         <v>214</v>
       </c>
@@ -2372,8 +2372,8 @@
         <v>223</v>
       </c>
     </row>
-    <row r="112" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="10"/>
+    <row r="112" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="9"/>
       <c r="E112" t="s">
         <v>221</v>
       </c>
@@ -2381,8 +2381,8 @@
         <v>224</v>
       </c>
     </row>
-    <row r="113" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="10"/>
+    <row r="113" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="9"/>
       <c r="E113" t="s">
         <v>239</v>
       </c>
@@ -2390,8 +2390,8 @@
         <v>240</v>
       </c>
     </row>
-    <row r="116" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="8" t="s">
+    <row r="116" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="10" t="s">
         <v>136</v>
       </c>
       <c r="C116" t="s">
@@ -2404,8 +2404,8 @@
         <v>198</v>
       </c>
     </row>
-    <row r="117" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="8"/>
+    <row r="117" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="10"/>
       <c r="C117" t="s">
         <v>124</v>
       </c>
@@ -2416,8 +2416,8 @@
         <v>199</v>
       </c>
     </row>
-    <row r="118" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="8"/>
+    <row r="118" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B118" s="10"/>
       <c r="C118" t="s">
         <v>126</v>
       </c>
@@ -2428,8 +2428,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="119" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="8"/>
+    <row r="119" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B119" s="10"/>
       <c r="C119" t="s">
         <v>133</v>
       </c>
@@ -2440,8 +2440,8 @@
         <v>201</v>
       </c>
     </row>
-    <row r="120" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="8"/>
+    <row r="120" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="10"/>
       <c r="C120" t="s">
         <v>134</v>
       </c>
@@ -2452,8 +2452,8 @@
         <v>201</v>
       </c>
     </row>
-    <row r="121" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="8"/>
+    <row r="121" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="10"/>
       <c r="C121" t="s">
         <v>137</v>
       </c>
@@ -2464,8 +2464,8 @@
         <v>202</v>
       </c>
     </row>
-    <row r="122" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="8"/>
+    <row r="122" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="10"/>
       <c r="C122" t="s">
         <v>130</v>
       </c>
@@ -2476,11 +2476,11 @@
         <v>247</v>
       </c>
     </row>
-    <row r="123" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B123" s="3"/>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B125" s="10" t="s">
+    <row r="125" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B125" s="9" t="s">
         <v>154</v>
       </c>
       <c r="C125" t="s">
@@ -2493,8 +2493,8 @@
         <v>203</v>
       </c>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B126" s="10"/>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B126" s="9"/>
       <c r="C126" t="s">
         <v>2</v>
       </c>
@@ -2505,8 +2505,8 @@
         <v>204</v>
       </c>
     </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B127" s="10"/>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B127" s="9"/>
       <c r="C127" t="s">
         <v>2</v>
       </c>
@@ -2517,8 +2517,8 @@
         <v>205</v>
       </c>
     </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B128" s="10"/>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B128" s="9"/>
       <c r="C128" t="s">
         <v>2</v>
       </c>
@@ -2529,8 +2529,8 @@
         <v>206</v>
       </c>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B129" s="10"/>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B129" s="9"/>
       <c r="C129" t="s">
         <v>2</v>
       </c>
@@ -2541,8 +2541,8 @@
         <v>207</v>
       </c>
     </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B130" s="10"/>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B130" s="9"/>
       <c r="C130" t="s">
         <v>2</v>
       </c>
@@ -2553,8 +2553,8 @@
         <v>208</v>
       </c>
     </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B131" s="10"/>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B131" s="9"/>
       <c r="C131" t="s">
         <v>2</v>
       </c>
@@ -2565,8 +2565,8 @@
         <v>209</v>
       </c>
     </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B132" s="10"/>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B132" s="9"/>
       <c r="C132" t="s">
         <v>2</v>
       </c>
@@ -2577,8 +2577,8 @@
         <v>210</v>
       </c>
     </row>
-    <row r="135" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="8" t="s">
+    <row r="135" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B135" s="10" t="s">
         <v>225</v>
       </c>
       <c r="E135" t="s">
@@ -2588,8 +2588,8 @@
         <v>227</v>
       </c>
     </row>
-    <row r="136" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="8"/>
+    <row r="136" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B136" s="10"/>
       <c r="E136" t="s">
         <v>228</v>
       </c>
@@ -2597,8 +2597,8 @@
         <v>229</v>
       </c>
     </row>
-    <row r="137" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="8"/>
+    <row r="137" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B137" s="10"/>
       <c r="E137" t="s">
         <v>230</v>
       </c>
@@ -2606,8 +2606,8 @@
         <v>233</v>
       </c>
     </row>
-    <row r="138" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="8"/>
+    <row r="138" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B138" s="10"/>
       <c r="E138" t="s">
         <v>231</v>
       </c>
@@ -2615,8 +2615,8 @@
         <v>232</v>
       </c>
     </row>
-    <row r="139" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="8"/>
+    <row r="139" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B139" s="10"/>
       <c r="E139" t="s">
         <v>235</v>
       </c>
@@ -2624,8 +2624,8 @@
         <v>236</v>
       </c>
     </row>
-    <row r="140" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="8"/>
+    <row r="140" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B140" s="10"/>
       <c r="C140" t="s">
         <v>259</v>
       </c>
@@ -2633,29 +2633,30 @@
         <v>260</v>
       </c>
       <c r="G140" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="141" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="8"/>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="141" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B141" s="10"/>
       <c r="E141" t="s">
+        <v>265</v>
+      </c>
+      <c r="G141" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B142" s="10"/>
+      <c r="E142" t="s">
+        <v>264</v>
+      </c>
+      <c r="G142" t="s">
         <v>266</v>
-      </c>
-      <c r="G141" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B142" s="8"/>
-      <c r="E142" t="s">
-        <v>265</v>
-      </c>
-      <c r="G142" t="s">
-        <v>267</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B135:B142"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="B125:B132"/>
     <mergeCell ref="B78:B81"/>
@@ -2667,7 +2668,6 @@
     <mergeCell ref="B68:B75"/>
     <mergeCell ref="B104:B113"/>
     <mergeCell ref="B86:B102"/>
-    <mergeCell ref="B135:B142"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2680,7 +2680,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2692,7 +2692,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/addons/GearSwap/beta_examples_and_information/Variable Remapping.xlsx
+++ b/addons/GearSwap/beta_examples_and_information/Variable Remapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="72" windowWidth="22980" windowHeight="9528"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="22980" windowHeight="9525"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -832,10 +832,10 @@
     <t>Disables equip commands targeting a given slot. "All" will prevent all equip commands. Providing no second argument will disable user gearswap file execution, although registered events will still run.</t>
   </si>
   <si>
-    <t>Enables equip commands targeting a given slot. "All" will allow all equip commands. Providing no second argument will enable user gearswap file execution, although registered events will still run.</t>
-  </si>
-  <si>
     <t>Exports your currently equipped gear, inventory, or all the items in your current Lua files' sets into gearswap .lua or spellcast .xml format. Takes options "inventory", "sets", and "xml." Defaults to currently equipped gear and lua otherwise.</t>
+  </si>
+  <si>
+    <t>Enables equip commands targeting a given slot. "All" will allow all equip commands. Providing no second argument will enable user gearswap file execution, if it was disabled.</t>
   </si>
 </sst>
 </file>
@@ -917,14 +917,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1229,21 +1229,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D124" workbookViewId="0">
-      <selection activeCell="F150" sqref="F150"/>
+    <sheetView tabSelected="1" topLeftCell="G124" workbookViewId="0">
+      <selection activeCell="G141" sqref="G141"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" customWidth="1"/>
-    <col min="5" max="5" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="124.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="124.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="25.95" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:7" ht="25.9" x14ac:dyDescent="0.5">
       <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1256,17 +1256,17 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C2" s="8" t="s">
+    <row r="2" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C2" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C4" t="s">
@@ -1279,8 +1279,8 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="10"/>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="8"/>
       <c r="C5" t="s">
         <v>4</v>
       </c>
@@ -1291,8 +1291,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="10"/>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="8"/>
       <c r="C6" t="s">
         <v>6</v>
       </c>
@@ -1303,8 +1303,8 @@
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="10"/>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="8"/>
       <c r="C7" t="s">
         <v>8</v>
       </c>
@@ -1315,8 +1315,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="10"/>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="8"/>
       <c r="C8" t="s">
         <v>10</v>
       </c>
@@ -1327,8 +1327,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="10"/>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="8"/>
       <c r="C9" t="s">
         <v>12</v>
       </c>
@@ -1339,8 +1339,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="10"/>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="8"/>
       <c r="C10" t="s">
         <v>14</v>
       </c>
@@ -1351,8 +1351,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="10"/>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="8"/>
       <c r="C11" t="s">
         <v>16</v>
       </c>
@@ -1363,8 +1363,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="10"/>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="8"/>
       <c r="C12" t="s">
         <v>18</v>
       </c>
@@ -1375,8 +1375,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="10"/>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="8"/>
       <c r="C13" t="s">
         <v>20</v>
       </c>
@@ -1387,8 +1387,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="10"/>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="8"/>
       <c r="C14" t="s">
         <v>77</v>
       </c>
@@ -1399,8 +1399,8 @@
         <v>163</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="10"/>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="8"/>
       <c r="C15" t="s">
         <v>79</v>
       </c>
@@ -1411,8 +1411,8 @@
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="10"/>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="8"/>
       <c r="C16" t="s">
         <v>81</v>
       </c>
@@ -1423,8 +1423,8 @@
         <v>234</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="10"/>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="8"/>
       <c r="C17" t="s">
         <v>83</v>
       </c>
@@ -1435,8 +1435,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="10"/>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="8"/>
       <c r="C18" t="s">
         <v>85</v>
       </c>
@@ -1447,8 +1447,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="10"/>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="8"/>
       <c r="C19" t="s">
         <v>87</v>
       </c>
@@ -1459,8 +1459,8 @@
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="10" t="s">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C22" t="s">
@@ -1473,8 +1473,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="10"/>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>26</v>
       </c>
@@ -1485,8 +1485,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="10"/>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="8"/>
       <c r="C24" t="s">
         <v>31</v>
       </c>
@@ -1497,8 +1497,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="10"/>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="8"/>
       <c r="C25" t="s">
         <v>33</v>
       </c>
@@ -1509,8 +1509,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="10"/>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="8"/>
       <c r="C26" t="s">
         <v>35</v>
       </c>
@@ -1521,8 +1521,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="10"/>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="8"/>
       <c r="C27" t="s">
         <v>37</v>
       </c>
@@ -1533,8 +1533,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="10"/>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="8"/>
       <c r="C28" t="s">
         <v>38</v>
       </c>
@@ -1545,8 +1545,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="10"/>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="8"/>
       <c r="C29" t="s">
         <v>41</v>
       </c>
@@ -1557,8 +1557,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="10"/>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="8"/>
       <c r="C30" t="s">
         <v>43</v>
       </c>
@@ -1569,8 +1569,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="10"/>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="8"/>
       <c r="C31" t="s">
         <v>45</v>
       </c>
@@ -1581,8 +1581,8 @@
         <v>248</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B32" s="10"/>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="8"/>
       <c r="C32" t="s">
         <v>46</v>
       </c>
@@ -1593,8 +1593,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B33" s="10"/>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="8"/>
       <c r="C33" t="s">
         <v>47</v>
       </c>
@@ -1605,8 +1605,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B34" s="10"/>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="8"/>
       <c r="C34" t="s">
         <v>48</v>
       </c>
@@ -1617,8 +1617,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B35" s="10"/>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="8"/>
       <c r="C35" t="s">
         <v>54</v>
       </c>
@@ -1629,8 +1629,8 @@
         <v>167</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B36" s="10"/>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="8"/>
       <c r="C36" t="s">
         <v>56</v>
       </c>
@@ -1641,8 +1641,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B37" s="10"/>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="8"/>
       <c r="C37" t="s">
         <v>72</v>
       </c>
@@ -1653,8 +1653,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B38" s="10"/>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="8"/>
       <c r="C38" t="s">
         <v>73</v>
       </c>
@@ -1665,8 +1665,8 @@
         <v>234</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B39" s="10"/>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="8"/>
       <c r="C39" t="s">
         <v>74</v>
       </c>
@@ -1677,8 +1677,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B40" s="10"/>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="8"/>
       <c r="C40" t="s">
         <v>75</v>
       </c>
@@ -1689,8 +1689,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B41" s="10"/>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="8"/>
       <c r="C41" t="s">
         <v>76</v>
       </c>
@@ -1701,8 +1701,8 @@
         <v>170</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B42" s="10"/>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="8"/>
       <c r="E42" t="s">
         <v>94</v>
       </c>
@@ -1710,8 +1710,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B43" s="10"/>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="8"/>
       <c r="E43" t="s">
         <v>95</v>
       </c>
@@ -1719,8 +1719,8 @@
         <v>234</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B44" s="10"/>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="8"/>
       <c r="C44" t="s">
         <v>2</v>
       </c>
@@ -1731,8 +1731,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B45" s="10"/>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="8"/>
       <c r="E45" t="s">
         <v>97</v>
       </c>
@@ -1740,8 +1740,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B46" s="10"/>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="8"/>
       <c r="E46" t="s">
         <v>98</v>
       </c>
@@ -1749,8 +1749,8 @@
         <v>169</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B47" s="10"/>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="8"/>
       <c r="C47" t="s">
         <v>99</v>
       </c>
@@ -1761,8 +1761,8 @@
         <v>171</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B48" s="10"/>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="8"/>
       <c r="C48" t="s">
         <v>100</v>
       </c>
@@ -1773,8 +1773,8 @@
         <v>171</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B49" s="10"/>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="8"/>
       <c r="C49" t="s">
         <v>101</v>
       </c>
@@ -1785,8 +1785,8 @@
         <v>171</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B50" s="10"/>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="8"/>
       <c r="C50" t="s">
         <v>102</v>
       </c>
@@ -1797,14 +1797,14 @@
         <v>171</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B51" s="10"/>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="8"/>
       <c r="C51" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B55" s="10" t="s">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="8" t="s">
         <v>104</v>
       </c>
       <c r="C55" t="s">
@@ -1817,8 +1817,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B56" s="10"/>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="8"/>
       <c r="C56" t="s">
         <v>107</v>
       </c>
@@ -1829,8 +1829,8 @@
         <v>172</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B57" s="10"/>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="8"/>
       <c r="C57" t="s">
         <v>109</v>
       </c>
@@ -1841,8 +1841,8 @@
         <v>174</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B58" s="10"/>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="8"/>
       <c r="C58" t="s">
         <v>111</v>
       </c>
@@ -1853,8 +1853,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B59" s="10"/>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="8"/>
       <c r="C59" t="s">
         <v>115</v>
       </c>
@@ -1865,8 +1865,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B60" s="10"/>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="8"/>
       <c r="C60" t="s">
         <v>113</v>
       </c>
@@ -1877,8 +1877,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B63" s="10" t="s">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="8" t="s">
         <v>116</v>
       </c>
       <c r="C63" t="s">
@@ -1891,8 +1891,8 @@
         <v>175</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B64" s="10"/>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="8"/>
       <c r="C64" t="s">
         <v>118</v>
       </c>
@@ -1903,8 +1903,8 @@
         <v>175</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B65" s="10"/>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" s="8"/>
       <c r="C65" t="s">
         <v>119</v>
       </c>
@@ -1915,8 +1915,8 @@
         <v>175</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B68" s="10" t="s">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B68" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C68" t="s">
@@ -1929,8 +1929,8 @@
         <v>176</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B69" s="10"/>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69" s="8"/>
       <c r="C69" t="s">
         <v>58</v>
       </c>
@@ -1941,8 +1941,8 @@
         <v>176</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B70" s="10"/>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70" s="8"/>
       <c r="C70" t="s">
         <v>60</v>
       </c>
@@ -1953,8 +1953,8 @@
         <v>176</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B71" s="10"/>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="8"/>
       <c r="C71" t="s">
         <v>63</v>
       </c>
@@ -1965,8 +1965,8 @@
         <v>176</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B72" s="10"/>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B72" s="8"/>
       <c r="C72" t="s">
         <v>64</v>
       </c>
@@ -1977,8 +1977,8 @@
         <v>176</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B73" s="10"/>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73" s="8"/>
       <c r="C73" t="s">
         <v>66</v>
       </c>
@@ -1989,8 +1989,8 @@
         <v>176</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B74" s="10"/>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B74" s="8"/>
       <c r="C74" t="s">
         <v>68</v>
       </c>
@@ -2001,8 +2001,8 @@
         <v>176</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B75" s="10"/>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75" s="8"/>
       <c r="C75" t="s">
         <v>69</v>
       </c>
@@ -2013,8 +2013,8 @@
         <v>176</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B78" s="10" t="s">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B78" s="8" t="s">
         <v>178</v>
       </c>
       <c r="C78" t="s">
@@ -2027,8 +2027,8 @@
         <v>181</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B79" s="10"/>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B79" s="8"/>
       <c r="C79" t="s">
         <v>2</v>
       </c>
@@ -2039,8 +2039,8 @@
         <v>180</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B80" s="10"/>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B80" s="8"/>
       <c r="C80" t="s">
         <v>2</v>
       </c>
@@ -2051,8 +2051,8 @@
         <v>184</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B81" s="10"/>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B81" s="8"/>
       <c r="C81" t="s">
         <v>2</v>
       </c>
@@ -2077,8 +2077,8 @@
         <v>258</v>
       </c>
     </row>
-    <row r="86" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="10" t="s">
+    <row r="86" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="8" t="s">
         <v>127</v>
       </c>
       <c r="C86" t="s">
@@ -2091,8 +2091,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="87" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="10"/>
+    <row r="87" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="8"/>
       <c r="C87" t="s">
         <v>132</v>
       </c>
@@ -2103,8 +2103,8 @@
         <v>188</v>
       </c>
     </row>
-    <row r="88" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="10"/>
+    <row r="88" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="8"/>
       <c r="C88" t="s">
         <v>139</v>
       </c>
@@ -2118,8 +2118,8 @@
         <v>263</v>
       </c>
     </row>
-    <row r="89" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="10"/>
+    <row r="89" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="8"/>
       <c r="C89" t="s">
         <v>140</v>
       </c>
@@ -2130,8 +2130,8 @@
         <v>190</v>
       </c>
     </row>
-    <row r="90" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="10"/>
+    <row r="90" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="8"/>
       <c r="C90" t="s">
         <v>125</v>
       </c>
@@ -2142,8 +2142,8 @@
         <v>191</v>
       </c>
     </row>
-    <row r="91" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="10"/>
+    <row r="91" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="8"/>
       <c r="C91" t="s">
         <v>149</v>
       </c>
@@ -2154,8 +2154,8 @@
         <v>255</v>
       </c>
     </row>
-    <row r="92" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="10"/>
+    <row r="92" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="8"/>
       <c r="C92" t="s">
         <v>2</v>
       </c>
@@ -2166,8 +2166,8 @@
         <v>192</v>
       </c>
     </row>
-    <row r="93" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="10"/>
+    <row r="93" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="8"/>
       <c r="C93" t="s">
         <v>2</v>
       </c>
@@ -2178,8 +2178,8 @@
         <v>193</v>
       </c>
     </row>
-    <row r="94" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="10"/>
+    <row r="94" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="8"/>
       <c r="C94" t="s">
         <v>2</v>
       </c>
@@ -2190,8 +2190,8 @@
         <v>194</v>
       </c>
     </row>
-    <row r="95" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="10"/>
+    <row r="95" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="8"/>
       <c r="C95" t="s">
         <v>2</v>
       </c>
@@ -2202,8 +2202,8 @@
         <v>195</v>
       </c>
     </row>
-    <row r="96" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="10"/>
+    <row r="96" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="8"/>
       <c r="C96" t="s">
         <v>2</v>
       </c>
@@ -2214,8 +2214,8 @@
         <v>196</v>
       </c>
     </row>
-    <row r="97" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="10"/>
+    <row r="97" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="8"/>
       <c r="C97" t="s">
         <v>2</v>
       </c>
@@ -2226,8 +2226,8 @@
         <v>257</v>
       </c>
     </row>
-    <row r="98" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="10"/>
+    <row r="98" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="8"/>
       <c r="C98" t="s">
         <v>2</v>
       </c>
@@ -2238,8 +2238,8 @@
         <v>197</v>
       </c>
     </row>
-    <row r="99" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="10"/>
+    <row r="99" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="8"/>
       <c r="C99" t="s">
         <v>243</v>
       </c>
@@ -2250,8 +2250,8 @@
         <v>245</v>
       </c>
     </row>
-    <row r="100" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="10"/>
+    <row r="100" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="8"/>
       <c r="C100" t="s">
         <v>130</v>
       </c>
@@ -2262,8 +2262,8 @@
         <v>246</v>
       </c>
     </row>
-    <row r="101" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="10"/>
+    <row r="101" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="8"/>
       <c r="C101" t="s">
         <v>133</v>
       </c>
@@ -2274,8 +2274,8 @@
         <v>251</v>
       </c>
     </row>
-    <row r="102" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="10"/>
+    <row r="102" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="8"/>
       <c r="C102" t="s">
         <v>134</v>
       </c>
@@ -2286,11 +2286,11 @@
         <v>252</v>
       </c>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B103" s="2"/>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B104" s="9" t="s">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B104" s="10" t="s">
         <v>220</v>
       </c>
       <c r="E104" t="s">
@@ -2300,8 +2300,8 @@
         <v>242</v>
       </c>
     </row>
-    <row r="105" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="9"/>
+    <row r="105" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="10"/>
       <c r="C105" t="s">
         <v>211</v>
       </c>
@@ -2312,8 +2312,8 @@
         <v>222</v>
       </c>
     </row>
-    <row r="106" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="9"/>
+    <row r="106" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="10"/>
       <c r="C106" t="s">
         <v>212</v>
       </c>
@@ -2324,8 +2324,8 @@
         <v>222</v>
       </c>
     </row>
-    <row r="107" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="9"/>
+    <row r="107" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="10"/>
       <c r="C107" t="s">
         <v>213</v>
       </c>
@@ -2336,8 +2336,8 @@
         <v>222</v>
       </c>
     </row>
-    <row r="108" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="9"/>
+    <row r="108" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="10"/>
       <c r="E108" t="s">
         <v>216</v>
       </c>
@@ -2345,8 +2345,8 @@
         <v>222</v>
       </c>
     </row>
-    <row r="109" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="9"/>
+    <row r="109" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="10"/>
       <c r="E109" t="s">
         <v>215</v>
       </c>
@@ -2354,8 +2354,8 @@
         <v>222</v>
       </c>
     </row>
-    <row r="110" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="9"/>
+    <row r="110" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="10"/>
       <c r="E110" t="s">
         <v>237</v>
       </c>
@@ -2363,8 +2363,8 @@
         <v>238</v>
       </c>
     </row>
-    <row r="111" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="9"/>
+    <row r="111" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="10"/>
       <c r="E111" t="s">
         <v>214</v>
       </c>
@@ -2372,8 +2372,8 @@
         <v>223</v>
       </c>
     </row>
-    <row r="112" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="9"/>
+    <row r="112" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="10"/>
       <c r="E112" t="s">
         <v>221</v>
       </c>
@@ -2381,8 +2381,8 @@
         <v>224</v>
       </c>
     </row>
-    <row r="113" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="9"/>
+    <row r="113" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="10"/>
       <c r="E113" t="s">
         <v>239</v>
       </c>
@@ -2390,8 +2390,8 @@
         <v>240</v>
       </c>
     </row>
-    <row r="116" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="10" t="s">
+    <row r="116" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="8" t="s">
         <v>136</v>
       </c>
       <c r="C116" t="s">
@@ -2404,8 +2404,8 @@
         <v>198</v>
       </c>
     </row>
-    <row r="117" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="10"/>
+    <row r="117" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="8"/>
       <c r="C117" t="s">
         <v>124</v>
       </c>
@@ -2416,8 +2416,8 @@
         <v>199</v>
       </c>
     </row>
-    <row r="118" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="10"/>
+    <row r="118" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="8"/>
       <c r="C118" t="s">
         <v>126</v>
       </c>
@@ -2428,8 +2428,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="119" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="10"/>
+    <row r="119" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="8"/>
       <c r="C119" t="s">
         <v>133</v>
       </c>
@@ -2440,8 +2440,8 @@
         <v>201</v>
       </c>
     </row>
-    <row r="120" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="10"/>
+    <row r="120" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="8"/>
       <c r="C120" t="s">
         <v>134</v>
       </c>
@@ -2452,8 +2452,8 @@
         <v>201</v>
       </c>
     </row>
-    <row r="121" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="10"/>
+    <row r="121" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="8"/>
       <c r="C121" t="s">
         <v>137</v>
       </c>
@@ -2464,8 +2464,8 @@
         <v>202</v>
       </c>
     </row>
-    <row r="122" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="10"/>
+    <row r="122" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="8"/>
       <c r="C122" t="s">
         <v>130</v>
       </c>
@@ -2476,11 +2476,11 @@
         <v>247</v>
       </c>
     </row>
-    <row r="123" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B123" s="3"/>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B125" s="9" t="s">
+    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B125" s="10" t="s">
         <v>154</v>
       </c>
       <c r="C125" t="s">
@@ -2493,8 +2493,8 @@
         <v>203</v>
       </c>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B126" s="9"/>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B126" s="10"/>
       <c r="C126" t="s">
         <v>2</v>
       </c>
@@ -2505,8 +2505,8 @@
         <v>204</v>
       </c>
     </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B127" s="9"/>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B127" s="10"/>
       <c r="C127" t="s">
         <v>2</v>
       </c>
@@ -2517,8 +2517,8 @@
         <v>205</v>
       </c>
     </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B128" s="9"/>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B128" s="10"/>
       <c r="C128" t="s">
         <v>2</v>
       </c>
@@ -2529,8 +2529,8 @@
         <v>206</v>
       </c>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B129" s="9"/>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B129" s="10"/>
       <c r="C129" t="s">
         <v>2</v>
       </c>
@@ -2541,8 +2541,8 @@
         <v>207</v>
       </c>
     </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B130" s="9"/>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B130" s="10"/>
       <c r="C130" t="s">
         <v>2</v>
       </c>
@@ -2553,8 +2553,8 @@
         <v>208</v>
       </c>
     </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B131" s="9"/>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B131" s="10"/>
       <c r="C131" t="s">
         <v>2</v>
       </c>
@@ -2565,8 +2565,8 @@
         <v>209</v>
       </c>
     </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B132" s="9"/>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B132" s="10"/>
       <c r="C132" t="s">
         <v>2</v>
       </c>
@@ -2577,8 +2577,8 @@
         <v>210</v>
       </c>
     </row>
-    <row r="135" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B135" s="10" t="s">
+    <row r="135" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B135" s="8" t="s">
         <v>225</v>
       </c>
       <c r="E135" t="s">
@@ -2588,8 +2588,8 @@
         <v>227</v>
       </c>
     </row>
-    <row r="136" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B136" s="10"/>
+    <row r="136" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="8"/>
       <c r="E136" t="s">
         <v>228</v>
       </c>
@@ -2597,8 +2597,8 @@
         <v>229</v>
       </c>
     </row>
-    <row r="137" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B137" s="10"/>
+    <row r="137" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="8"/>
       <c r="E137" t="s">
         <v>230</v>
       </c>
@@ -2606,8 +2606,8 @@
         <v>233</v>
       </c>
     </row>
-    <row r="138" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B138" s="10"/>
+    <row r="138" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="8"/>
       <c r="E138" t="s">
         <v>231</v>
       </c>
@@ -2615,8 +2615,8 @@
         <v>232</v>
       </c>
     </row>
-    <row r="139" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="10"/>
+    <row r="139" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="8"/>
       <c r="E139" t="s">
         <v>235</v>
       </c>
@@ -2624,8 +2624,8 @@
         <v>236</v>
       </c>
     </row>
-    <row r="140" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B140" s="10"/>
+    <row r="140" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="8"/>
       <c r="C140" t="s">
         <v>259</v>
       </c>
@@ -2633,20 +2633,20 @@
         <v>260</v>
       </c>
       <c r="G140" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="141" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="10"/>
+        <v>267</v>
+      </c>
+    </row>
+    <row r="141" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="8"/>
       <c r="E141" t="s">
         <v>265</v>
       </c>
       <c r="G141" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B142" s="10"/>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B142" s="8"/>
       <c r="E142" t="s">
         <v>264</v>
       </c>
@@ -2680,7 +2680,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2692,7 +2692,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/addons/GearSwap/beta_examples_and_information/Variable Remapping.xlsx
+++ b/addons/GearSwap/beta_examples_and_information/Variable Remapping.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="270">
   <si>
     <t>Old Variable Name</t>
   </si>
@@ -836,6 +836,9 @@
   </si>
   <si>
     <t>Enables equip commands targeting a given slot. "All" will allow all equip commands. Providing no second argument will enable user gearswap file execution, if it was disabled.</t>
+  </si>
+  <si>
+    <t>SELF', 'PLAYER', 'NPC', or 'MONSTER'. Should be re-keyed to match validtarget.</t>
   </si>
 </sst>
 </file>
@@ -1229,8 +1232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G124" workbookViewId="0">
-      <selection activeCell="G141" sqref="G141"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1420,7 +1423,7 @@
         <v>82</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>234</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">

--- a/addons/GearSwap/beta_examples_and_information/Variable Remapping.xlsx
+++ b/addons/GearSwap/beta_examples_and_information/Variable Remapping.xlsx
@@ -513,9 +513,6 @@
     <t>Whatever was entered as a target.</t>
   </si>
   <si>
-    <t>Table of Booleans keyed to 'Self', 'Player', 'Party', 'Ally', 'NPC', and 'Enemy'. True means that it's valid for that target.</t>
-  </si>
-  <si>
     <t>Pulled from the player array.</t>
   </si>
   <si>
@@ -839,6 +836,9 @@
   </si>
   <si>
     <t>SELF', 'PLAYER', 'NPC', or 'MONSTER'. Should be re-keyed to match validtarget.</t>
+  </si>
+  <si>
+    <t>Table of Booleans keyed to 'Self', 'Player', 'Party', 'Ally', 'NPC', 'Enemy', and 'Corpse'. True means that it's valid for that target.</t>
   </si>
 </sst>
 </file>
@@ -1232,8 +1232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1303,7 +1303,7 @@
         <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>165</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
@@ -1423,7 +1423,7 @@
         <v>82</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
@@ -1435,7 +1435,7 @@
         <v>84</v>
       </c>
       <c r="G17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
@@ -1447,7 +1447,7 @@
         <v>86</v>
       </c>
       <c r="G18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
@@ -1473,7 +1473,7 @@
         <v>24</v>
       </c>
       <c r="G22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
@@ -1485,7 +1485,7 @@
         <v>27</v>
       </c>
       <c r="G23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
@@ -1497,7 +1497,7 @@
         <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
@@ -1509,7 +1509,7 @@
         <v>34</v>
       </c>
       <c r="G25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
@@ -1521,7 +1521,7 @@
         <v>36</v>
       </c>
       <c r="G26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
@@ -1533,7 +1533,7 @@
         <v>39</v>
       </c>
       <c r="G27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
@@ -1545,7 +1545,7 @@
         <v>40</v>
       </c>
       <c r="G28" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
@@ -1557,7 +1557,7 @@
         <v>42</v>
       </c>
       <c r="G29" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
@@ -1569,7 +1569,7 @@
         <v>44</v>
       </c>
       <c r="G30" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
@@ -1581,7 +1581,7 @@
         <v>49</v>
       </c>
       <c r="G31" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
@@ -1593,7 +1593,7 @@
         <v>50</v>
       </c>
       <c r="G32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
@@ -1605,7 +1605,7 @@
         <v>51</v>
       </c>
       <c r="G33" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
@@ -1617,7 +1617,7 @@
         <v>52</v>
       </c>
       <c r="G34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
@@ -1629,7 +1629,7 @@
         <v>55</v>
       </c>
       <c r="G35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
@@ -1641,7 +1641,7 @@
         <v>57</v>
       </c>
       <c r="G36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
@@ -1653,7 +1653,7 @@
         <v>89</v>
       </c>
       <c r="G37" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
@@ -1665,7 +1665,7 @@
         <v>90</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
@@ -1677,7 +1677,7 @@
         <v>91</v>
       </c>
       <c r="G39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
@@ -1689,7 +1689,7 @@
         <v>92</v>
       </c>
       <c r="G40" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
@@ -1701,7 +1701,7 @@
         <v>93</v>
       </c>
       <c r="G41" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
@@ -1710,7 +1710,7 @@
         <v>94</v>
       </c>
       <c r="G42" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
@@ -1719,7 +1719,7 @@
         <v>95</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
@@ -1731,7 +1731,7 @@
         <v>96</v>
       </c>
       <c r="G44" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
@@ -1740,7 +1740,7 @@
         <v>97</v>
       </c>
       <c r="G45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
@@ -1749,7 +1749,7 @@
         <v>98</v>
       </c>
       <c r="G46" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
@@ -1761,7 +1761,7 @@
         <v>120</v>
       </c>
       <c r="G47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
@@ -1773,7 +1773,7 @@
         <v>121</v>
       </c>
       <c r="G48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
@@ -1785,7 +1785,7 @@
         <v>122</v>
       </c>
       <c r="G49" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
@@ -1797,7 +1797,7 @@
         <v>123</v>
       </c>
       <c r="G50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
@@ -1817,7 +1817,7 @@
         <v>106</v>
       </c>
       <c r="G55" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
@@ -1829,7 +1829,7 @@
         <v>108</v>
       </c>
       <c r="G56" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
@@ -1841,7 +1841,7 @@
         <v>110</v>
       </c>
       <c r="G57" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
@@ -1853,7 +1853,7 @@
         <v>112</v>
       </c>
       <c r="G58" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
@@ -1865,7 +1865,7 @@
         <v>114</v>
       </c>
       <c r="G59" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
@@ -1877,7 +1877,7 @@
         <v>2</v>
       </c>
       <c r="G60" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
@@ -1891,7 +1891,7 @@
         <v>2</v>
       </c>
       <c r="G63" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.25">
@@ -1903,7 +1903,7 @@
         <v>2</v>
       </c>
       <c r="G64" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
@@ -1915,7 +1915,7 @@
         <v>2</v>
       </c>
       <c r="G65" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
@@ -1929,7 +1929,7 @@
         <v>30</v>
       </c>
       <c r="G68" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
@@ -1941,7 +1941,7 @@
         <v>59</v>
       </c>
       <c r="G69" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.25">
@@ -1953,7 +1953,7 @@
         <v>61</v>
       </c>
       <c r="G70" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.25">
@@ -1965,7 +1965,7 @@
         <v>62</v>
       </c>
       <c r="G71" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.25">
@@ -1977,7 +1977,7 @@
         <v>65</v>
       </c>
       <c r="G72" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">
@@ -1989,7 +1989,7 @@
         <v>67</v>
       </c>
       <c r="G73" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
@@ -2001,7 +2001,7 @@
         <v>70</v>
       </c>
       <c r="G74" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.25">
@@ -2013,21 +2013,21 @@
         <v>71</v>
       </c>
       <c r="G75" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C78" t="s">
         <v>53</v>
       </c>
       <c r="E78" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G78" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
@@ -2036,10 +2036,10 @@
         <v>2</v>
       </c>
       <c r="E79" t="s">
+        <v>178</v>
+      </c>
+      <c r="G79" t="s">
         <v>179</v>
-      </c>
-      <c r="G79" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.25">
@@ -2048,10 +2048,10 @@
         <v>2</v>
       </c>
       <c r="E80" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G80" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.25">
@@ -2060,10 +2060,10 @@
         <v>2</v>
       </c>
       <c r="E81" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G81" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="83" spans="2:7" ht="21" x14ac:dyDescent="0.35">
@@ -2077,7 +2077,7 @@
         <v>129</v>
       </c>
       <c r="G83" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="86" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2091,7 +2091,7 @@
         <v>144</v>
       </c>
       <c r="G86" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="87" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2100,10 +2100,10 @@
         <v>132</v>
       </c>
       <c r="E87" t="s">
+        <v>186</v>
+      </c>
+      <c r="G87" t="s">
         <v>187</v>
-      </c>
-      <c r="G87" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="88" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2112,13 +2112,13 @@
         <v>139</v>
       </c>
       <c r="D88" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E88" t="s">
         <v>261</v>
       </c>
-      <c r="E88" t="s">
+      <c r="G88" t="s">
         <v>262</v>
-      </c>
-      <c r="G88" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="89" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2130,7 +2130,7 @@
         <v>142</v>
       </c>
       <c r="G89" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="90" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2139,10 +2139,10 @@
         <v>125</v>
       </c>
       <c r="E90" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G90" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="91" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2151,10 +2151,10 @@
         <v>149</v>
       </c>
       <c r="E91" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G91" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="92" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2166,7 +2166,7 @@
         <v>138</v>
       </c>
       <c r="G92" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="93" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2178,7 +2178,7 @@
         <v>148</v>
       </c>
       <c r="G93" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="94" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2190,7 +2190,7 @@
         <v>145</v>
       </c>
       <c r="G94" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="95" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2202,7 +2202,7 @@
         <v>146</v>
       </c>
       <c r="G95" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="96" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2214,7 +2214,7 @@
         <v>147</v>
       </c>
       <c r="G96" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="97" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2223,10 +2223,10 @@
         <v>2</v>
       </c>
       <c r="E97" t="s">
+        <v>255</v>
+      </c>
+      <c r="G97" t="s">
         <v>256</v>
-      </c>
-      <c r="G97" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="98" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2235,22 +2235,22 @@
         <v>2</v>
       </c>
       <c r="E98" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G98" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="99" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="8"/>
       <c r="C99" t="s">
+        <v>242</v>
+      </c>
+      <c r="E99" t="s">
         <v>243</v>
       </c>
-      <c r="E99" t="s">
+      <c r="G99" t="s">
         <v>244</v>
-      </c>
-      <c r="G99" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="100" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2262,7 +2262,7 @@
         <v>2</v>
       </c>
       <c r="G100" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="101" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2271,10 +2271,10 @@
         <v>133</v>
       </c>
       <c r="E101" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G101" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="102" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2283,114 +2283,114 @@
         <v>134</v>
       </c>
       <c r="E102" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G102" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="103" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B103" s="2"/>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B104" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E104" t="s">
+        <v>240</v>
+      </c>
+      <c r="G104" t="s">
         <v>241</v>
-      </c>
-      <c r="G104" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="105" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="10"/>
       <c r="C105" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E105" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G105" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="106" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="10"/>
       <c r="C106" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E106" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G106" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="107" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="10"/>
       <c r="C107" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E107" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G107" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="108" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="10"/>
       <c r="E108" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G108" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="109" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="10"/>
       <c r="E109" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G109" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="110" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="10"/>
       <c r="E110" t="s">
+        <v>236</v>
+      </c>
+      <c r="G110" t="s">
         <v>237</v>
-      </c>
-      <c r="G110" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="111" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="10"/>
       <c r="E111" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G111" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="112" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="10"/>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G112" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="113" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="10"/>
       <c r="E113" t="s">
+        <v>238</v>
+      </c>
+      <c r="G113" t="s">
         <v>239</v>
-      </c>
-      <c r="G113" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="116" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2404,7 +2404,7 @@
         <v>2</v>
       </c>
       <c r="G116" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="117" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2416,7 +2416,7 @@
         <v>2</v>
       </c>
       <c r="G117" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="118" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2428,7 +2428,7 @@
         <v>2</v>
       </c>
       <c r="G118" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="119" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2440,7 +2440,7 @@
         <v>2</v>
       </c>
       <c r="G119" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="120" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2452,7 +2452,7 @@
         <v>2</v>
       </c>
       <c r="G120" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="121" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2464,7 +2464,7 @@
         <v>2</v>
       </c>
       <c r="G121" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="122" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2476,10 +2476,10 @@
         <v>2</v>
       </c>
       <c r="G122" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="123" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="3"/>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.25">
@@ -2493,7 +2493,7 @@
         <v>150</v>
       </c>
       <c r="G125" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.25">
@@ -2505,7 +2505,7 @@
         <v>151</v>
       </c>
       <c r="G126" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.25">
@@ -2517,7 +2517,7 @@
         <v>152</v>
       </c>
       <c r="G127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.25">
@@ -2529,7 +2529,7 @@
         <v>153</v>
       </c>
       <c r="G128" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.25">
@@ -2541,7 +2541,7 @@
         <v>155</v>
       </c>
       <c r="G129" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.25">
@@ -2553,7 +2553,7 @@
         <v>156</v>
       </c>
       <c r="G130" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.25">
@@ -2565,7 +2565,7 @@
         <v>157</v>
       </c>
       <c r="G131" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.25">
@@ -2577,84 +2577,84 @@
         <v>158</v>
       </c>
       <c r="G132" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="135" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E135" t="s">
         <v>225</v>
       </c>
-      <c r="E135" t="s">
+      <c r="G135" t="s">
         <v>226</v>
-      </c>
-      <c r="G135" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="136" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="8"/>
       <c r="E136" t="s">
+        <v>227</v>
+      </c>
+      <c r="G136" t="s">
         <v>228</v>
-      </c>
-      <c r="G136" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="137" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="8"/>
       <c r="E137" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G137" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="138" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="8"/>
       <c r="E138" t="s">
+        <v>230</v>
+      </c>
+      <c r="G138" t="s">
         <v>231</v>
-      </c>
-      <c r="G138" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="139" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="8"/>
       <c r="E139" t="s">
+        <v>234</v>
+      </c>
+      <c r="G139" t="s">
         <v>235</v>
-      </c>
-      <c r="G139" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="140" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="8"/>
       <c r="C140" t="s">
+        <v>258</v>
+      </c>
+      <c r="E140" t="s">
         <v>259</v>
       </c>
-      <c r="E140" t="s">
-        <v>260</v>
-      </c>
       <c r="G140" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="141" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="8"/>
       <c r="E141" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G141" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="142" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B142" s="8"/>
       <c r="E142" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G142" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
